--- a/misc/performance/results.xlsx
+++ b/misc/performance/results.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="24740" windowHeight="15560" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="37400" windowHeight="21160" tabRatio="500" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Beaglebone" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,11 @@
     <sheet name="Single Threaded Opt" sheetId="16" r:id="rId7"/>
     <sheet name="Multi Threaded Opt" sheetId="17" r:id="rId8"/>
     <sheet name="Single Threaded Opt (2)" sheetId="18" r:id="rId9"/>
-    <sheet name="Odroid-FPS" sheetId="14" r:id="rId10"/>
-    <sheet name="Sheet3" sheetId="15" r:id="rId11"/>
+    <sheet name="Summary" sheetId="14" r:id="rId10"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="18" r:id="rId12"/>
+    <pivotCache cacheId="0" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2409" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2495" uniqueCount="100">
   <si>
     <t>No optimisations</t>
   </si>
@@ -321,6 +320,18 @@
   <si>
     <t>System Load</t>
   </si>
+  <si>
+    <t>naïve</t>
+  </si>
+  <si>
+    <t>Naïve</t>
+  </si>
+  <si>
+    <t>No Optimisations</t>
+  </si>
+  <si>
+    <t>Optimised Multi Threaded</t>
+  </si>
 </sst>
 </file>
 
@@ -442,7 +453,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="639">
+  <cellStyleXfs count="703">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1082,8 +1093,72 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1104,12 +1179,6 @@
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1135,8 +1204,17 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="639">
+  <cellStyles count="703">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1456,6 +1534,38 @@
     <cellStyle name="Followed Hyperlink" xfId="634" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="636" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="638" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="640" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="642" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="644" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="646" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="648" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="650" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="652" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="654" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="656" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="658" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="660" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="662" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="664" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="666" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="668" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="670" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="672" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="674" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="676" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="678" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="680" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="682" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="684" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="686" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="688" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="690" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="692" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="694" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="696" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="698" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="700" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="702" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1775,9 +1885,62 @@
     <cellStyle name="Hyperlink" xfId="633" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="635" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="637" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="639" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="641" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="643" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="645" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="647" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="649" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="651" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="653" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="655" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="657" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="659" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="661" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="663" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="665" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="667" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="669" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="671" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="673" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="675" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="677" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="679" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="681" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="683" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="685" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="687" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="689" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="691" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="693" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="695" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="697" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="699" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="701" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="24">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -2079,11 +2242,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2116195352"/>
-        <c:axId val="2117014232"/>
+        <c:axId val="2075765960"/>
+        <c:axId val="2075769320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2116195352"/>
+        <c:axId val="2075765960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2121,7 +2284,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117014232"/>
+        <c:crossAx val="2075769320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2129,7 +2292,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2117014232"/>
+        <c:axId val="2075769320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2174,7 +2337,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2116195352"/>
+        <c:crossAx val="2075765960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2189,6 +2352,1862 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="2000" b="0" i="0"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$B$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Median Blur</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$82:$A$83</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Standard</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optimised Single Threaded (2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$B$82:$B$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.113148235</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$C$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Canny</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$82:$A$83</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Standard</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optimised Single Threaded (2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$C$82:$C$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.13373724</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0931043</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$D$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Find Contours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$82:$A$83</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Standard</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optimised Single Threaded (2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$D$82:$D$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.01409409</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01659352</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$E$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Approximate Polygons (1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$82:$A$83</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Standard</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optimised Single Threaded (2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$E$82:$E$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.005767945</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01404452</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$F$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Get Index Of Outer Square</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$82:$A$83</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Standard</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optimised Single Threaded (2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$F$82:$F$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.4195E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.435E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$G$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Approximate Polygons (2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$82:$A$83</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Standard</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optimised Single Threaded (2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$G$82:$G$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.000687025</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00021739</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$H$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Label Polygons</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$82:$A$83</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Standard</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optimised Single Threaded (2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$H$82:$H$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.931E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1485E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$I$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Label Corners</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$82:$A$83</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Standard</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optimised Single Threaded (2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$I$82:$I$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5.9505E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.069E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2133516712"/>
+        <c:axId val="2133519720"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2133516712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="1" i="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2133519720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2133519720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" b="0" i="0"/>
+                  <a:t>Average Time Taken / Frame (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="1" i="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2133516712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$B$95</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Median Blur</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$96:$A$97</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Standard</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optimised Single Threaded (2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$B$96:$B$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.054467225</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$C$95</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Canny</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$96:$A$97</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Standard</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optimised Single Threaded (2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$C$96:$C$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.038176315</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01449697</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$D$95</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Find Contours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$96:$A$97</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Standard</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optimised Single Threaded (2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$D$96:$D$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.002183615</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00420331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$E$95</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Approximate Polygons (1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$96:$A$97</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Standard</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optimised Single Threaded (2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$E$96:$E$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.000642505</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.003768695</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$F$95</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Get Index Of Outer Square</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$96:$A$97</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Standard</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optimised Single Threaded (2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$F$96:$F$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3.165E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$G$95</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Approximate Polygons (2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$96:$A$97</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Standard</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optimised Single Threaded (2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$G$96:$G$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.00011566</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6245E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$H$95</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Label Polygons</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$96:$A$97</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Standard</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optimised Single Threaded (2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$H$96:$H$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4.51E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.42E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$I$95</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Label Corners</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$96:$A$97</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Standard</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optimised Single Threaded (2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$I$96:$I$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.1545E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.119E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2089050072"/>
+        <c:axId val="2088819528"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2089050072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="1" i="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2088819528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2088819528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" b="0" i="0"/>
+                  <a:t>Average Time Taken / Frame (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="1" i="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2089050072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$B$148</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Capture</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$149:$A$153</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Naïve</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optimised Libraries</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Optimised Single Threaded</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Optimised Multi Threaded</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Optimised Single Threaded (2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$B$149:$B$153</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.015641875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.009366025</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00921994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03402454</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.009893675</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$C$148</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Detect Corners</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$149:$A$153</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Naïve</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optimised Libraries</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Optimised Single Threaded</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Optimised Multi Threaded</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Optimised Single Threaded (2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$C$149:$C$153</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.095883885</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.091276125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.036647465</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.043267385</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.022773665</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$D$148</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calibrate Image Points</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$149:$A$153</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Naïve</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optimised Libraries</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Optimised Single Threaded</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Optimised Multi Threaded</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Optimised Single Threaded (2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$D$149:$D$153</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.000155985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.2225E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00016594</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.927E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00016341</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$E$148</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estimate Pose</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$149:$A$153</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Naïve</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optimised Libraries</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Optimised Single Threaded</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Optimised Multi Threaded</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Optimised Single Threaded (2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$E$149:$E$153</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.00025914</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00025563</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00025007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000281495</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.000246825</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2132843112"/>
+        <c:axId val="2132849736"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2132843112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="1" i="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2132849736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2132849736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" b="0" i="0"/>
+                  <a:t>Average Time Taken / Frame (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="1" i="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2132843112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$B$162</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Capture</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$163:$A$167</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Naïve</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optimised Libraries</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Optimised Single Threaded</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Optimised Multi Threaded</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Optimised Single Threaded (2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$B$163:$B$167</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.07143105</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.039124305</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03859833</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40262533</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.03946338</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$C$162</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Detect Corners</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$163:$A$167</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Naïve</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optimised Libraries</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Optimised Single Threaded</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Optimised Multi Threaded</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Optimised Single Threaded (2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$C$163:$C$167</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.268846945</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.270127445</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15491655</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.72543951</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.124613105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$D$162</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calibrate Image Points</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$163:$A$167</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Naïve</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optimised Libraries</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Optimised Single Threaded</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Optimised Multi Threaded</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Optimised Single Threaded (2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$D$163:$D$167</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.000555455</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00054486</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000609755</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00215047</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.000693745</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$E$162</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estimate Pose</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$163:$A$167</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Naïve</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optimised Libraries</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Optimised Single Threaded</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Optimised Multi Threaded</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Optimised Single Threaded (2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$E$163:$E$167</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.002641225</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00265148</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.002540295</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.011569515</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.002669085</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2136765400"/>
+        <c:axId val="2136768632"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2136765400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="1" i="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2136768632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2136768632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" b="0" i="0"/>
+                  <a:t>Average Time Taken / Frame (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="1" i="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2136765400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000"/>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -2660,11 +4679,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2134115304"/>
-        <c:axId val="2134687272"/>
+        <c:axId val="2075834264"/>
+        <c:axId val="2075839768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2134115304"/>
+        <c:axId val="2075834264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2702,7 +4721,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2134687272"/>
+        <c:crossAx val="2075839768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2710,7 +4729,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2134687272"/>
+        <c:axId val="2075839768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2755,7 +4774,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2134115304"/>
+        <c:crossAx val="2075834264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2862,7 +4881,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Standard</c:v>
+                  <c:v>No Optimisations</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>NEON</c:v>
@@ -2938,7 +4957,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Standard</c:v>
+                  <c:v>No Optimisations</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>NEON</c:v>
@@ -2995,7 +5014,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Standard</c:v>
+                  <c:v>No Optimisations</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>NEON</c:v>
@@ -3052,7 +5071,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Standard</c:v>
+                  <c:v>No Optimisations</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>NEON</c:v>
@@ -3098,11 +5117,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2128854152"/>
-        <c:axId val="-2129487864"/>
+        <c:axId val="2075015080"/>
+        <c:axId val="2075018360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2128854152"/>
+        <c:axId val="2075015080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3121,7 +5140,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2129487864"/>
+        <c:crossAx val="2075018360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3129,7 +5148,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2129487864"/>
+        <c:axId val="2075018360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3169,7 +5188,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2128854152"/>
+        <c:crossAx val="2075015080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3597,11 +5616,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2126147800"/>
-        <c:axId val="-2129541416"/>
+        <c:axId val="2075104360"/>
+        <c:axId val="2075107368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2126147800"/>
+        <c:axId val="2075104360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3620,7 +5639,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2129541416"/>
+        <c:crossAx val="2075107368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3628,7 +5647,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2129541416"/>
+        <c:axId val="2075107368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3668,7 +5687,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2126147800"/>
+        <c:crossAx val="2075104360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3798,11 +5817,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2123800920"/>
-        <c:axId val="-2123797912"/>
+        <c:axId val="2072846120"/>
+        <c:axId val="2072849144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2123800920"/>
+        <c:axId val="2072846120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3821,7 +5840,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2123797912"/>
+        <c:crossAx val="2072849144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3829,7 +5848,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2123797912"/>
+        <c:axId val="2072849144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3869,7 +5888,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2123800920"/>
+        <c:crossAx val="2072846120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3989,11 +6008,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2098700008"/>
-        <c:axId val="-2125256760"/>
+        <c:axId val="2072887560"/>
+        <c:axId val="2072890600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2098700008"/>
+        <c:axId val="2072887560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4012,7 +6031,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2125256760"/>
+        <c:crossAx val="2072890600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4020,7 +6039,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2125256760"/>
+        <c:axId val="2072890600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4060,7 +6079,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2098700008"/>
+        <c:crossAx val="2072887560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4473,11 +6492,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2133975080"/>
-        <c:axId val="-2124771432"/>
+        <c:axId val="2072971080"/>
+        <c:axId val="2072974088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2133975080"/>
+        <c:axId val="2072971080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4496,7 +6515,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2124771432"/>
+        <c:crossAx val="2072974088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4504,7 +6523,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2124771432"/>
+        <c:axId val="2072974088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4544,7 +6563,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2133975080"/>
+        <c:crossAx val="2072971080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4607,7 +6626,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Odroid-FPS'!$B$21</c:f>
+              <c:f>Summary!$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4619,11 +6638,11 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Odroid-FPS'!$A$22:$A$28</c:f>
+              <c:f>Summary!$A$22:$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>standard</c:v>
+                  <c:v>naïve</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>NEON</c:v>
@@ -4648,7 +6667,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Odroid-FPS'!$B$22:$B$28</c:f>
+              <c:f>Summary!$B$22:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4686,11 +6705,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2101689448"/>
-        <c:axId val="2101692536"/>
+        <c:axId val="2073008904"/>
+        <c:axId val="2073011944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2101689448"/>
+        <c:axId val="2073008904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4709,7 +6728,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2101692536"/>
+        <c:crossAx val="2073011944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4717,7 +6736,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2101692536"/>
+        <c:axId val="2073011944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4747,7 +6766,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101689448"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2073008904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4795,7 +6824,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Odroid-FPS'!$B$21</c:f>
+              <c:f>Summary!$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4807,11 +6836,11 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Odroid-FPS'!$A$31:$A$37</c:f>
+              <c:f>Summary!$A$31:$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>standard</c:v>
+                  <c:v>naïve</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>NEON</c:v>
@@ -4836,7 +6865,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Odroid-FPS'!$B$31:$B$37</c:f>
+              <c:f>Summary!$B$31:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4874,11 +6903,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2127370920"/>
-        <c:axId val="2118271384"/>
+        <c:axId val="2072329400"/>
+        <c:axId val="2072326344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2127370920"/>
+        <c:axId val="2072329400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4897,7 +6926,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2118271384"/>
+        <c:crossAx val="2072326344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4905,7 +6934,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2118271384"/>
+        <c:axId val="2072326344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4935,7 +6964,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127370920"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2072329400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5236,16 +7275,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>49900</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>126100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>303900</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>10900</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>875400</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>87100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5261,6 +7300,134 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>779700</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>104100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>805100</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>180300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1460500</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>703500</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>27900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1346200</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>589200</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>129500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14217,43 +16384,40 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="L59:P65" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="A85:I93" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="24">
     <pivotField axis="axisRow" showAll="0">
       <items count="5">
         <item x="0"/>
-        <item x="2"/>
+        <item h="1" x="2"/>
         <item x="1"/>
         <item h="1" x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisCol" showAll="0">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="9">
+        <item h="1" x="5"/>
         <item h="1" x="0"/>
         <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="6"/>
         <item x="1"/>
         <item h="1" x="7"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="3"/>
-        <item h="1" x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisCol" showAll="0">
+    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
       <items count="4">
         <item x="0"/>
         <item x="1"/>
-        <item x="2"/>
+        <item h="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -14261,58 +16425,91 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="1">
+  <rowFields count="2">
     <field x="0"/>
+    <field x="2"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="7">
     <i>
       <x/>
     </i>
-    <i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
       <x v="1"/>
     </i>
     <i>
       <x v="2"/>
     </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="1"/>
-    <field x="2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x v="2"/>
+    <i r="1">
       <x/>
     </i>
     <i r="1">
       <x v="1"/>
     </i>
-    <i t="default">
-      <x v="2"/>
-    </i>
     <i t="grand">
       <x/>
     </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+    <i i="6">
+      <x v="6"/>
+    </i>
+    <i i="7">
+      <x v="7"/>
+    </i>
   </colItems>
-  <dataFields count="1">
-    <dataField name="Average of fps" fld="6" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
+  <pageFields count="1">
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="8">
+    <dataField name="medianBlur avg" fld="11" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Canny avg" fld="12" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="findContours avg" fld="13" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="approxPolydp1 avg" fld="14" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="getIndexOfOuterSquare avg" fld="15" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="approxPolyDP2 avg" fld="16" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="labelPolygons avg" fld="17" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="labelCorners avg" fld="18" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="11">
+    <format dxfId="20">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -14326,7 +16523,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="I4:M12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="24">
     <pivotField axis="axisRow" showAll="0">
@@ -14435,7 +16632,7 @@
     <dataField name="estimatePose avg" fld="10" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="9">
+    <format dxfId="16">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -14449,130 +16646,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="P28:T36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="24">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item h="1" x="2"/>
-        <item x="1"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="5"/>
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="4">
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="4">
-    <dataField name="capture avg" fld="7" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="detectCorners avg" fld="8" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="calibrateImagePoints avg" fld="9" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="estimatePose avg" fld="10" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="4">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A24:I32" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="24">
     <pivotField axis="axisRow" showAll="0">
@@ -14697,7 +16771,130 @@
     <dataField name="labelCorners avg" fld="18" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="5">
+    <format dxfId="11">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="P28:T36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="24">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item h="1" x="2"/>
+        <item x="1"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="5"/>
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="4">
+    <dataField name="capture avg" fld="7" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="detectCorners avg" fld="8" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="calibrateImagePoints avg" fld="9" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="estimatePose avg" fld="10" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -14711,7 +16908,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A4:I9" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="24">
     <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
@@ -14827,7 +17024,7 @@
     <dataField name="Average of fps" fld="6" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="13">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -14841,130 +17038,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="I4:M12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="24">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item h="1" x="2"/>
-        <item x="1"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="5"/>
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="4">
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="4">
-    <dataField name="capture avg" fld="7" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="detectCorners avg" fld="8" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="calibrateImagePoints avg" fld="9" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="estimatePose avg" fld="10" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="1">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A24:I32" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="24">
     <pivotField axis="axisRow" showAll="0">
@@ -15089,7 +17163,130 @@
     <dataField name="labelCorners avg" fld="18" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="2">
+    <format dxfId="8">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="I4:M12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="24">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item h="1" x="2"/>
+        <item x="1"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="5"/>
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="4">
+    <dataField name="capture avg" fld="7" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="detectCorners avg" fld="8" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="calibrateImagePoints avg" fld="9" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="estimatePose avg" fld="10" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="9">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -15103,7 +17300,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A4:D8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="24">
     <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
@@ -15193,7 +17390,7 @@
     <dataField name="Average of fps" fld="6" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="3">
+    <format dxfId="10">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -15207,7 +17404,332 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="A109:E135" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="24">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item h="1" x="2"/>
+        <item x="1"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item x="5"/>
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item h="1" x="7"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="0"/>
+    <field x="1"/>
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="25">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="4">
+    <dataField name="capture avg" fld="7" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="detectCorners avg" fld="8" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="calibrateImagePoints avg" fld="9" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="estimatePose avg" fld="10" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="A64:I72" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="24">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item h="1" x="2"/>
+        <item x="1"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="5"/>
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+    <i i="6">
+      <x v="6"/>
+    </i>
+    <i i="7">
+      <x v="7"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="8">
+    <dataField name="medianBlur avg" fld="11" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Canny avg" fld="12" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="findContours avg" fld="13" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="approxPolydp1 avg" fld="14" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="getIndexOfOuterSquare avg" fld="15" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="approxPolyDP2 avg" fld="16" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="labelPolygons avg" fld="17" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="labelCorners avg" fld="18" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="6">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A4:I10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="24">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -15319,7 +17841,7 @@
     <dataField name="Average of fps" fld="6" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="6">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -15333,147 +17855,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="A85:I93" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="24">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item h="1" x="2"/>
-        <item x="1"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="5"/>
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="6"/>
-        <item x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-    <i i="5">
-      <x v="5"/>
-    </i>
-    <i i="6">
-      <x v="6"/>
-    </i>
-    <i i="7">
-      <x v="7"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="8">
-    <dataField name="medianBlur avg" fld="11" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Canny avg" fld="12" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="findContours avg" fld="13" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="approxPolydp1 avg" fld="14" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="getIndexOfOuterSquare avg" fld="15" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="approxPolyDP2 avg" fld="16" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="labelPolygons avg" fld="17" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="labelCorners avg" fld="18" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="13">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="A20:I25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="L59:P65" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="24">
     <pivotField axis="axisRow" showAll="0">
       <items count="5">
@@ -15484,28 +17867,31 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+    <pivotField axis="axisCol" showAll="0">
       <items count="9">
-        <item h="1" x="5"/>
         <item h="1" x="0"/>
         <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="6"/>
         <item x="1"/>
         <item h="1" x="7"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="3"/>
+        <item h="1" x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+    <pivotField axis="axisCol" showAll="0">
       <items count="4">
-        <item h="1" x="0"/>
+        <item x="0"/>
         <item x="1"/>
-        <item h="1" x="2"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -15513,14 +17899,11 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
@@ -15544,51 +17927,30 @@
       <x/>
     </i>
   </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="2"/>
   </colFields>
-  <colItems count="8">
+  <colItems count="4">
     <i>
+      <x v="2"/>
       <x/>
     </i>
-    <i i="1">
+    <i r="1">
       <x v="1"/>
     </i>
-    <i i="2">
+    <i t="default">
       <x v="2"/>
     </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-    <i i="5">
-      <x v="5"/>
-    </i>
-    <i i="6">
-      <x v="6"/>
-    </i>
-    <i i="7">
-      <x v="7"/>
+    <i t="grand">
+      <x/>
     </i>
   </colItems>
-  <pageFields count="2">
-    <pageField fld="2" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="8">
-    <dataField name="medianBlur avg" fld="11" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Canny avg" fld="12" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="findContours avg" fld="13" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="approxPolydp1 avg" fld="14" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="getIndexOfOuterSquare avg" fld="15" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="approxPolyDP2 avg" fld="16" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="labelPolygons avg" fld="17" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="labelCorners avg" fld="18" subtotal="average" baseField="0" baseItem="0"/>
+  <dataFields count="1">
+    <dataField name="Average of fps" fld="6" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="14">
+    <format dxfId="21">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -15601,8 +17963,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="C3:G14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="24">
     <pivotField axis="axisRow" showAll="0">
@@ -15720,7 +18082,7 @@
     <dataField name="estimatePose avg" fld="10" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="16">
+    <format dxfId="22">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -15733,29 +18095,29 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="I4:M16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="A20:I25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="24">
     <pivotField axis="axisRow" showAll="0">
       <items count="5">
         <item x="0"/>
-        <item h="1" x="2"/>
+        <item x="2"/>
         <item x="1"/>
         <item h="1" x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="9">
         <item h="1" x="5"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
         <item h="1" x="4"/>
+        <item h="1" x="6"/>
         <item x="1"/>
         <item h="1" x="7"/>
-        <item h="1" x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -15771,58 +18133,36 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="2">
+  <rowFields count="1">
     <field x="0"/>
-    <field x="1"/>
   </rowFields>
-  <rowItems count="11">
+  <rowItems count="4">
     <i>
       <x/>
     </i>
-    <i r="1">
+    <i>
       <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
     </i>
     <i>
       <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -15831,7 +18171,7 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="4">
+  <colItems count="8">
     <i>
       <x/>
     </i>
@@ -15844,18 +18184,35 @@
     <i i="3">
       <x v="3"/>
     </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+    <i i="6">
+      <x v="6"/>
+    </i>
+    <i i="7">
+      <x v="7"/>
+    </i>
   </colItems>
-  <pageFields count="1">
+  <pageFields count="2">
     <pageField fld="2" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
   </pageFields>
-  <dataFields count="4">
-    <dataField name="capture avg" fld="7" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="detectCorners avg" fld="8" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="calibrateImagePoints avg" fld="9" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="estimatePose avg" fld="10" subtotal="average" baseField="0" baseItem="0"/>
+  <dataFields count="8">
+    <dataField name="medianBlur avg" fld="11" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Canny avg" fld="12" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="findContours avg" fld="13" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="approxPolydp1 avg" fld="14" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="getIndexOfOuterSquare avg" fld="15" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="approxPolyDP2 avg" fld="16" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="labelPolygons avg" fld="17" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="labelCorners avg" fld="18" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="10">
+    <format dxfId="23">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -15868,8 +18225,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A24:I36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="24">
     <pivotField axis="axisRow" showAll="0">
@@ -16006,7 +18363,142 @@
     <dataField name="labelCorners avg" fld="18" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="12">
+    <format dxfId="17">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="I4:M16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="24">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item h="1" x="2"/>
+        <item x="1"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="5"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item h="1" x="4"/>
+        <item x="1"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="4">
+    <dataField name="capture avg" fld="7" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="detectCorners avg" fld="8" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="calibrateImagePoints avg" fld="9" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="estimatePose avg" fld="10" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="18">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -16020,7 +18512,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A4:F8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="24">
     <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
@@ -16116,7 +18608,7 @@
     <dataField name="Average of fps" fld="6" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="15">
+    <format dxfId="19">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -16130,111 +18622,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="A4:D8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="24">
-    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item h="1" x="2"/>
-        <item x="1"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0" sortType="descending">
-      <items count="9">
-        <item h="1" x="7"/>
-        <item h="1" x="1"/>
-        <item h="1" x="6"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="4">
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Average of fps" fld="6" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="7">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A24:I32" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="24">
     <pivotField axis="axisRow" showAll="0">
@@ -16359,7 +18747,111 @@
     <dataField name="labelCorners avg" fld="18" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="8">
+    <format dxfId="14">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="A4:D8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="24">
+    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item h="1" x="2"/>
+        <item x="1"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0" sortType="descending">
+      <items count="9">
+        <item h="1" x="7"/>
+        <item h="1" x="1"/>
+        <item h="1" x="6"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Average of fps" fld="6" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="15">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -27347,23 +29839,23 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I37"/>
+  <dimension ref="A2:I173"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="H58" workbookViewId="0">
+      <selection activeCell="V76" sqref="V76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="8.5" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" customWidth="1"/>
-    <col min="7" max="7" width="21.83203125" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.6640625" customWidth="1"/>
     <col min="12" max="12" width="21.83203125" customWidth="1"/>
@@ -27542,7 +30034,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="B22">
         <v>8.8699999999999992</v>
@@ -27611,7 +30103,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="B31">
         <v>2.89</v>
@@ -27665,30 +30157,1424 @@
         <v>5.95</v>
       </c>
     </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="B64" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B65" t="s">
+        <v>39</v>
+      </c>
+      <c r="C65" t="s">
+        <v>40</v>
+      </c>
+      <c r="D65" t="s">
+        <v>41</v>
+      </c>
+      <c r="E65" t="s">
+        <v>42</v>
+      </c>
+      <c r="F65" t="s">
+        <v>43</v>
+      </c>
+      <c r="G65" t="s">
+        <v>44</v>
+      </c>
+      <c r="H65" t="s">
+        <v>45</v>
+      </c>
+      <c r="I65" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66" s="6">
+        <v>1.13148235</v>
+      </c>
+      <c r="C66" s="6">
+        <v>2.2684154000000003</v>
+      </c>
+      <c r="D66" s="6">
+        <v>0.30687610000000004</v>
+      </c>
+      <c r="E66" s="6">
+        <v>0.19812465000000001</v>
+      </c>
+      <c r="F66" s="6">
+        <v>2.0629999999999997E-4</v>
+      </c>
+      <c r="G66" s="6">
+        <v>9.0441499999999991E-3</v>
+      </c>
+      <c r="H66" s="6">
+        <v>4.0794999999999997E-4</v>
+      </c>
+      <c r="I66" s="6">
+        <v>1.2019500000000002E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67" s="6">
+        <v>0</v>
+      </c>
+      <c r="C67" s="6">
+        <v>1.8620860000000001</v>
+      </c>
+      <c r="D67" s="6">
+        <v>0.33187040000000001</v>
+      </c>
+      <c r="E67" s="6">
+        <v>0.28089039999999998</v>
+      </c>
+      <c r="F67" s="6">
+        <v>1.2869999999999998E-4</v>
+      </c>
+      <c r="G67" s="6">
+        <v>4.3477999999999998E-3</v>
+      </c>
+      <c r="H67" s="6">
+        <v>4.2969999999999998E-4</v>
+      </c>
+      <c r="I67" s="6">
+        <v>1.2138000000000001E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68" s="6">
+        <v>2.2629646999999999</v>
+      </c>
+      <c r="C68" s="6">
+        <v>2.6747448</v>
+      </c>
+      <c r="D68" s="6">
+        <v>0.28188179999999996</v>
+      </c>
+      <c r="E68" s="6">
+        <v>0.1153589</v>
+      </c>
+      <c r="F68" s="6">
+        <v>2.8390000000000002E-4</v>
+      </c>
+      <c r="G68" s="6">
+        <v>1.3740499999999999E-2</v>
+      </c>
+      <c r="H68" s="6">
+        <v>3.8620000000000001E-4</v>
+      </c>
+      <c r="I68" s="6">
+        <v>1.1900999999999999E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B69" s="6">
+        <v>0.54467224999999997</v>
+      </c>
+      <c r="C69" s="6">
+        <v>0.52673284999999992</v>
+      </c>
+      <c r="D69" s="6">
+        <v>6.3869250000000002E-2</v>
+      </c>
+      <c r="E69" s="6">
+        <v>4.4111999999999991E-2</v>
+      </c>
+      <c r="F69" s="6">
+        <v>5.965E-5</v>
+      </c>
+      <c r="G69" s="6">
+        <v>1.41905E-3</v>
+      </c>
+      <c r="H69" s="6">
+        <v>9.9300000000000001E-5</v>
+      </c>
+      <c r="I69" s="6">
+        <v>2.2734999999999994E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B70" s="6">
+        <v>0</v>
+      </c>
+      <c r="C70" s="6">
+        <v>0.28993940000000001</v>
+      </c>
+      <c r="D70" s="6">
+        <v>8.4066200000000008E-2</v>
+      </c>
+      <c r="E70" s="6">
+        <v>7.5373899999999994E-2</v>
+      </c>
+      <c r="F70" s="6">
+        <v>5.6000000000000006E-5</v>
+      </c>
+      <c r="G70" s="6">
+        <v>5.2490000000000002E-4</v>
+      </c>
+      <c r="H70" s="6">
+        <v>1.0840000000000001E-4</v>
+      </c>
+      <c r="I70" s="6">
+        <v>2.2379999999999999E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71" s="6">
+        <v>1.0893444999999999</v>
+      </c>
+      <c r="C71" s="6">
+        <v>0.76352629999999988</v>
+      </c>
+      <c r="D71" s="6">
+        <v>4.3672300000000004E-2</v>
+      </c>
+      <c r="E71" s="6">
+        <v>1.28501E-2</v>
+      </c>
+      <c r="F71" s="6">
+        <v>6.3299999999999994E-5</v>
+      </c>
+      <c r="G71" s="6">
+        <v>2.3132000000000001E-3</v>
+      </c>
+      <c r="H71" s="6">
+        <v>9.0199999999999997E-5</v>
+      </c>
+      <c r="I71" s="6">
+        <v>2.3090000000000003E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B72" s="6">
+        <v>0.83807730000000014</v>
+      </c>
+      <c r="C72" s="6">
+        <v>1.3975741250000004</v>
+      </c>
+      <c r="D72" s="6">
+        <v>0.18537267500000004</v>
+      </c>
+      <c r="E72" s="6">
+        <v>0.12111832499999994</v>
+      </c>
+      <c r="F72" s="6">
+        <v>1.3297500000000002E-4</v>
+      </c>
+      <c r="G72" s="6">
+        <v>5.2316000000000012E-3</v>
+      </c>
+      <c r="H72" s="6">
+        <v>2.5362500000000005E-4</v>
+      </c>
+      <c r="I72" s="6">
+        <v>7.1465000000000016E-4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="s">
+        <v>59</v>
+      </c>
+      <c r="B81" t="s">
+        <v>76</v>
+      </c>
+      <c r="C81" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" t="s">
+        <v>77</v>
+      </c>
+      <c r="E81" t="s">
+        <v>78</v>
+      </c>
+      <c r="F81" t="s">
+        <v>80</v>
+      </c>
+      <c r="G81" t="s">
+        <v>79</v>
+      </c>
+      <c r="H81" t="s">
+        <v>81</v>
+      </c>
+      <c r="I81" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82">
+        <f>B89/20</f>
+        <v>0.113148235</v>
+      </c>
+      <c r="C82">
+        <f t="shared" ref="C82:I83" si="0">C89/20</f>
+        <v>0.13373724000000001</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="0"/>
+        <v>1.4094089999999998E-2</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="0"/>
+        <v>5.767945E-3</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="0"/>
+        <v>1.4195E-5</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="0"/>
+        <v>6.8702499999999996E-4</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="0"/>
+        <v>1.931E-5</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="0"/>
+        <v>5.9504999999999994E-5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B83">
+        <f>B90/20</f>
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="0"/>
+        <v>9.3104300000000001E-2</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="0"/>
+        <v>1.659352E-2</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="0"/>
+        <v>1.404452E-2</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="0"/>
+        <v>6.4349999999999994E-6</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="0"/>
+        <v>2.1738999999999998E-4</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="0"/>
+        <v>2.1484999999999998E-5</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="0"/>
+        <v>6.0690000000000003E-5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="B89" s="9">
+        <v>2.2629646999999999</v>
+      </c>
+      <c r="C89" s="9">
+        <v>2.6747448</v>
+      </c>
+      <c r="D89" s="9">
+        <v>0.28188179999999996</v>
+      </c>
+      <c r="E89" s="9">
+        <v>0.1153589</v>
+      </c>
+      <c r="F89" s="9">
+        <v>2.8390000000000002E-4</v>
+      </c>
+      <c r="G89" s="9">
+        <v>1.3740499999999999E-2</v>
+      </c>
+      <c r="H89" s="9">
+        <v>3.8620000000000001E-4</v>
+      </c>
+      <c r="I89" s="9">
+        <v>1.1900999999999999E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="B90" s="9">
+        <v>0</v>
+      </c>
+      <c r="C90" s="9">
+        <v>1.8620860000000001</v>
+      </c>
+      <c r="D90" s="9">
+        <v>0.33187040000000001</v>
+      </c>
+      <c r="E90" s="9">
+        <v>0.28089039999999998</v>
+      </c>
+      <c r="F90" s="9">
+        <v>1.2869999999999998E-4</v>
+      </c>
+      <c r="G90" s="9">
+        <v>4.3477999999999998E-3</v>
+      </c>
+      <c r="H90" s="9">
+        <v>4.2969999999999998E-4</v>
+      </c>
+      <c r="I90" s="9">
+        <v>1.2138000000000001E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" t="s">
+        <v>59</v>
+      </c>
+      <c r="B95" t="s">
+        <v>76</v>
+      </c>
+      <c r="C95" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" t="s">
+        <v>77</v>
+      </c>
+      <c r="E95" t="s">
+        <v>78</v>
+      </c>
+      <c r="F95" t="s">
+        <v>80</v>
+      </c>
+      <c r="G95" t="s">
+        <v>79</v>
+      </c>
+      <c r="H95" t="s">
+        <v>81</v>
+      </c>
+      <c r="I95" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" t="s">
+        <v>85</v>
+      </c>
+      <c r="B96">
+        <f>B101/20</f>
+        <v>5.4467224999999994E-2</v>
+      </c>
+      <c r="C96">
+        <f t="shared" ref="C96:I97" si="1">C101/20</f>
+        <v>3.8176314999999995E-2</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="1"/>
+        <v>2.1836150000000003E-3</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="1"/>
+        <v>6.4250500000000003E-4</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="1"/>
+        <v>3.1649999999999998E-6</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="1"/>
+        <v>1.1566E-4</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="1"/>
+        <v>4.51E-6</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="1"/>
+        <v>1.1545000000000002E-5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B97">
+        <f>B102/20</f>
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="1"/>
+        <v>1.4496970000000001E-2</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="1"/>
+        <v>4.20331E-3</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="1"/>
+        <v>3.7686949999999999E-3</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="1"/>
+        <v>2.8000000000000003E-6</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="1"/>
+        <v>2.6245E-5</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="1"/>
+        <v>5.4200000000000006E-6</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="1"/>
+        <v>1.119E-5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="B101" s="9">
+        <v>1.0893444999999999</v>
+      </c>
+      <c r="C101" s="9">
+        <v>0.76352629999999988</v>
+      </c>
+      <c r="D101" s="9">
+        <v>4.3672300000000004E-2</v>
+      </c>
+      <c r="E101" s="9">
+        <v>1.28501E-2</v>
+      </c>
+      <c r="F101" s="9">
+        <v>6.3299999999999994E-5</v>
+      </c>
+      <c r="G101" s="9">
+        <v>2.3132000000000001E-3</v>
+      </c>
+      <c r="H101" s="9">
+        <v>9.0199999999999997E-5</v>
+      </c>
+      <c r="I101" s="9">
+        <v>2.3090000000000003E-4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="B102" s="9">
+        <v>0</v>
+      </c>
+      <c r="C102" s="9">
+        <v>0.28993940000000001</v>
+      </c>
+      <c r="D102" s="9">
+        <v>8.4066200000000008E-2</v>
+      </c>
+      <c r="E102" s="9">
+        <v>7.5373899999999994E-2</v>
+      </c>
+      <c r="F102" s="9">
+        <v>5.6000000000000006E-5</v>
+      </c>
+      <c r="G102" s="9">
+        <v>5.2490000000000002E-4</v>
+      </c>
+      <c r="H102" s="9">
+        <v>1.0840000000000001E-4</v>
+      </c>
+      <c r="I102" s="9">
+        <v>2.2379999999999999E-4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="B109" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B110" t="s">
+        <v>35</v>
+      </c>
+      <c r="C110" t="s">
+        <v>36</v>
+      </c>
+      <c r="D110" t="s">
+        <v>37</v>
+      </c>
+      <c r="E110" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B111" s="6">
+        <v>3.3429271166666656</v>
+      </c>
+      <c r="C111" s="6">
+        <v>6.4733567833333359</v>
+      </c>
+      <c r="D111" s="6">
+        <v>1.8579916666666665E-2</v>
+      </c>
+      <c r="E111" s="6">
+        <v>9.5334316666666682E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B112" s="6">
+        <v>8.1426106999999988</v>
+      </c>
+      <c r="C112" s="6">
+        <v>11.235029900000001</v>
+      </c>
+      <c r="D112" s="6">
+        <v>3.1701600000000003E-2</v>
+      </c>
+      <c r="E112" s="6">
+        <v>0.18098210000000003</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="25">
+        <v>1</v>
+      </c>
+      <c r="B113" s="6">
+        <v>8.2327148000000001</v>
+      </c>
+      <c r="C113" s="6">
+        <v>7.9612695999999996</v>
+      </c>
+      <c r="D113" s="6">
+        <v>2.03938E-2</v>
+      </c>
+      <c r="E113" s="6">
+        <v>0.13057389999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="25">
+        <v>2</v>
+      </c>
+      <c r="B114" s="6">
+        <v>8.052506600000001</v>
+      </c>
+      <c r="C114" s="6">
+        <v>14.508790200000002</v>
+      </c>
+      <c r="D114" s="6">
+        <v>4.3009399999999996E-2</v>
+      </c>
+      <c r="E114" s="6">
+        <v>0.23139030000000002</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B115" s="6">
+        <v>0.78248610000000007</v>
+      </c>
+      <c r="C115" s="6">
+        <v>5.4025488999999993</v>
+      </c>
+      <c r="D115" s="6">
+        <v>1.0897199999999999E-2</v>
+      </c>
+      <c r="E115" s="6">
+        <v>5.302960000000001E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="25">
+        <v>1</v>
+      </c>
+      <c r="B116" s="6">
+        <v>0.78248610000000007</v>
+      </c>
+      <c r="C116" s="6">
+        <v>5.4025488999999993</v>
+      </c>
+      <c r="D116" s="6">
+        <v>1.0897199999999999E-2</v>
+      </c>
+      <c r="E116" s="6">
+        <v>5.302960000000001E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B117" s="6">
+        <v>0.77196660000000006</v>
+      </c>
+      <c r="C117" s="6">
+        <v>3.0983309999999999</v>
+      </c>
+      <c r="D117" s="6">
+        <v>1.21951E-2</v>
+      </c>
+      <c r="E117" s="6">
+        <v>5.0805900000000001E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="25">
+        <v>1</v>
+      </c>
+      <c r="B118" s="6">
+        <v>0.77196660000000006</v>
+      </c>
+      <c r="C118" s="6">
+        <v>3.0983309999999999</v>
+      </c>
+      <c r="D118" s="6">
+        <v>1.21951E-2</v>
+      </c>
+      <c r="E118" s="6">
+        <v>5.0805900000000001E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B119" s="6">
+        <v>1.4286210000000001</v>
+      </c>
+      <c r="C119" s="6">
+        <v>5.376938899999999</v>
+      </c>
+      <c r="D119" s="6">
+        <v>1.11091E-2</v>
+      </c>
+      <c r="E119" s="6">
+        <v>5.282450000000001E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="25">
+        <v>1</v>
+      </c>
+      <c r="B120" s="6">
+        <v>1.4286210000000001</v>
+      </c>
+      <c r="C120" s="6">
+        <v>5.376938899999999</v>
+      </c>
+      <c r="D120" s="6">
+        <v>1.11091E-2</v>
+      </c>
+      <c r="E120" s="6">
+        <v>5.282450000000001E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B121" s="6">
+        <v>0.78926760000000007</v>
+      </c>
+      <c r="C121" s="6">
+        <v>2.4922620999999996</v>
+      </c>
+      <c r="D121" s="6">
+        <v>1.3874899999999999E-2</v>
+      </c>
+      <c r="E121" s="6">
+        <v>5.3381699999999997E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="25">
+        <v>1</v>
+      </c>
+      <c r="B122" s="6">
+        <v>0.78926760000000007</v>
+      </c>
+      <c r="C122" s="6">
+        <v>2.4922620999999996</v>
+      </c>
+      <c r="D122" s="6">
+        <v>1.3874899999999999E-2</v>
+      </c>
+      <c r="E122" s="6">
+        <v>5.3381699999999997E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B123" s="6">
+        <v>0.45704641666666673</v>
+      </c>
+      <c r="C123" s="6">
+        <v>1.0933855833333335</v>
+      </c>
+      <c r="D123" s="6">
+        <v>2.2526499999999997E-3</v>
+      </c>
+      <c r="E123" s="6">
+        <v>5.252816666666665E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B124" s="6">
+        <v>0.92992410000000003</v>
+      </c>
+      <c r="C124" s="6">
+        <v>0.81434534999999997</v>
+      </c>
+      <c r="D124" s="6">
+        <v>9.8235000000000011E-4</v>
+      </c>
+      <c r="E124" s="6">
+        <v>5.6417999999999998E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="25">
+        <v>1</v>
+      </c>
+      <c r="B125" s="6">
+        <v>1.1793574</v>
+      </c>
+      <c r="C125" s="6">
+        <v>0.76334299999999988</v>
+      </c>
+      <c r="D125" s="6">
+        <v>9.7930000000000001E-4</v>
+      </c>
+      <c r="E125" s="6">
+        <v>5.6537000000000002E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="25">
+        <v>2</v>
+      </c>
+      <c r="B126" s="6">
+        <v>0.68049080000000006</v>
+      </c>
+      <c r="C126" s="6">
+        <v>0.86534770000000028</v>
+      </c>
+      <c r="D126" s="6">
+        <v>9.8539999999999999E-4</v>
+      </c>
+      <c r="E126" s="6">
+        <v>5.6299000000000002E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B127" s="6">
+        <v>0.18732050000000003</v>
+      </c>
+      <c r="C127" s="6">
+        <v>1.8255224999999999</v>
+      </c>
+      <c r="D127" s="6">
+        <v>1.8445E-3</v>
+      </c>
+      <c r="E127" s="6">
+        <v>5.1125999999999993E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="25">
+        <v>1</v>
+      </c>
+      <c r="B128" s="6">
+        <v>0.18732050000000003</v>
+      </c>
+      <c r="C128" s="6">
+        <v>1.8255224999999999</v>
+      </c>
+      <c r="D128" s="6">
+        <v>1.8445E-3</v>
+      </c>
+      <c r="E128" s="6">
+        <v>5.1125999999999993E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B129" s="6">
+        <v>0.18439879999999997</v>
+      </c>
+      <c r="C129" s="6">
+        <v>0.73294930000000003</v>
+      </c>
+      <c r="D129" s="6">
+        <v>3.3187999999999994E-3</v>
+      </c>
+      <c r="E129" s="6">
+        <v>5.0014000000000005E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="25">
+        <v>1</v>
+      </c>
+      <c r="B130" s="6">
+        <v>0.18439879999999997</v>
+      </c>
+      <c r="C130" s="6">
+        <v>0.73294930000000003</v>
+      </c>
+      <c r="D130" s="6">
+        <v>3.3187999999999994E-3</v>
+      </c>
+      <c r="E130" s="6">
+        <v>5.0014000000000005E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B131" s="6">
+        <v>0.31283749999999999</v>
+      </c>
+      <c r="C131" s="6">
+        <v>1.9176776999999998</v>
+      </c>
+      <c r="D131" s="6">
+        <v>3.1197E-3</v>
+      </c>
+      <c r="E131" s="6">
+        <v>5.1828000000000004E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="25">
+        <v>1</v>
+      </c>
+      <c r="B132" s="6">
+        <v>0.31283749999999999</v>
+      </c>
+      <c r="C132" s="6">
+        <v>1.9176776999999998</v>
+      </c>
+      <c r="D132" s="6">
+        <v>3.1197E-3</v>
+      </c>
+      <c r="E132" s="6">
+        <v>5.1828000000000004E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B133" s="6">
+        <v>0.19787349999999998</v>
+      </c>
+      <c r="C133" s="6">
+        <v>0.45547330000000008</v>
+      </c>
+      <c r="D133" s="6">
+        <v>3.2682000000000011E-3</v>
+      </c>
+      <c r="E133" s="6">
+        <v>4.9365000000000008E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="25">
+        <v>1</v>
+      </c>
+      <c r="B134" s="6">
+        <v>0.19787349999999998</v>
+      </c>
+      <c r="C134" s="6">
+        <v>0.45547330000000008</v>
+      </c>
+      <c r="D134" s="6">
+        <v>3.2682000000000011E-3</v>
+      </c>
+      <c r="E134" s="6">
+        <v>4.9365000000000008E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B135" s="6">
+        <v>1.8999867666666652</v>
+      </c>
+      <c r="C135" s="6">
+        <v>3.7833711833333341</v>
+      </c>
+      <c r="D135" s="6">
+        <v>1.0416283333333337E-2</v>
+      </c>
+      <c r="E135" s="6">
+        <v>5.0293566666666657E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B149" s="20">
+        <f>B155/20</f>
+        <v>1.5641875E-2</v>
+      </c>
+      <c r="C149" s="20">
+        <f t="shared" ref="C149:E150" si="2">C155/20</f>
+        <v>9.5883884999999988E-2</v>
+      </c>
+      <c r="D149" s="20">
+        <f t="shared" si="2"/>
+        <v>1.55985E-4</v>
+      </c>
+      <c r="E149" s="20">
+        <f t="shared" si="2"/>
+        <v>2.5914000000000004E-4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B150" s="20">
+        <f t="shared" ref="B150:E150" si="3">B156/20</f>
+        <v>9.3660250000000018E-3</v>
+      </c>
+      <c r="C150" s="20">
+        <f t="shared" si="3"/>
+        <v>9.1276125E-2</v>
+      </c>
+      <c r="D150" s="20">
+        <f t="shared" si="3"/>
+        <v>9.2225000000000006E-5</v>
+      </c>
+      <c r="E150" s="20">
+        <f t="shared" si="3"/>
+        <v>2.5562999999999996E-4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B151" s="20">
+        <f t="shared" ref="B151:E151" si="4">B157/20</f>
+        <v>9.2199399999999994E-3</v>
+      </c>
+      <c r="C151" s="20">
+        <f t="shared" si="4"/>
+        <v>3.6647465000000004E-2</v>
+      </c>
+      <c r="D151" s="20">
+        <f t="shared" si="4"/>
+        <v>1.6593999999999997E-4</v>
+      </c>
+      <c r="E151" s="20">
+        <f t="shared" si="4"/>
+        <v>2.5007000000000002E-4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>99</v>
+      </c>
+      <c r="B152" s="20">
+        <f t="shared" ref="B152:E152" si="5">B158/20</f>
+        <v>3.4024540000000006E-2</v>
+      </c>
+      <c r="C152" s="20">
+        <f t="shared" si="5"/>
+        <v>4.3267385000000012E-2</v>
+      </c>
+      <c r="D152" s="20">
+        <f t="shared" si="5"/>
+        <v>4.9270000000000001E-5</v>
+      </c>
+      <c r="E152" s="20">
+        <f t="shared" si="5"/>
+        <v>2.8149499999999999E-4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>94</v>
+      </c>
+      <c r="B153" s="20">
+        <f t="shared" ref="B153:E153" si="6">B159/20</f>
+        <v>9.8936749999999993E-3</v>
+      </c>
+      <c r="C153" s="20">
+        <f t="shared" si="6"/>
+        <v>2.2773665000000005E-2</v>
+      </c>
+      <c r="D153" s="20">
+        <f t="shared" si="6"/>
+        <v>1.6341000000000006E-4</v>
+      </c>
+      <c r="E153" s="20">
+        <f t="shared" si="6"/>
+        <v>2.4682500000000005E-4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="B155" s="9">
+        <v>0.31283749999999999</v>
+      </c>
+      <c r="C155" s="9">
+        <v>1.9176776999999998</v>
+      </c>
+      <c r="D155" s="9">
+        <v>3.1197E-3</v>
+      </c>
+      <c r="E155" s="9">
+        <v>5.1828000000000004E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="B156" s="9">
+        <v>0.18732050000000003</v>
+      </c>
+      <c r="C156" s="9">
+        <v>1.8255224999999999</v>
+      </c>
+      <c r="D156" s="9">
+        <v>1.8445E-3</v>
+      </c>
+      <c r="E156" s="9">
+        <v>5.1125999999999993E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="B157" s="9">
+        <v>0.18439879999999997</v>
+      </c>
+      <c r="C157" s="9">
+        <v>0.73294930000000003</v>
+      </c>
+      <c r="D157" s="9">
+        <v>3.3187999999999994E-3</v>
+      </c>
+      <c r="E157" s="9">
+        <v>5.0014000000000005E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="B158" s="9">
+        <v>0.68049080000000006</v>
+      </c>
+      <c r="C158" s="9">
+        <v>0.86534770000000028</v>
+      </c>
+      <c r="D158" s="9">
+        <v>9.8539999999999999E-4</v>
+      </c>
+      <c r="E158" s="9">
+        <v>5.6299000000000002E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="B159" s="9">
+        <v>0.19787349999999998</v>
+      </c>
+      <c r="C159" s="9">
+        <v>0.45547330000000008</v>
+      </c>
+      <c r="D159" s="9">
+        <v>3.2682000000000011E-3</v>
+      </c>
+      <c r="E159" s="9">
+        <v>4.9365000000000008E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B163" s="20">
+        <f>B169/20</f>
+        <v>7.143105000000001E-2</v>
+      </c>
+      <c r="C163" s="20">
+        <f t="shared" ref="C163:E163" si="7">C169/20</f>
+        <v>0.26884694499999995</v>
+      </c>
+      <c r="D163" s="20">
+        <f t="shared" si="7"/>
+        <v>5.5545500000000005E-4</v>
+      </c>
+      <c r="E163" s="20">
+        <f t="shared" si="7"/>
+        <v>2.6412250000000005E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B164" s="20">
+        <f t="shared" ref="B164:E164" si="8">B170/20</f>
+        <v>3.9124305000000005E-2</v>
+      </c>
+      <c r="C164" s="20">
+        <f t="shared" si="8"/>
+        <v>0.27012744499999997</v>
+      </c>
+      <c r="D164" s="20">
+        <f t="shared" si="8"/>
+        <v>5.4485999999999998E-4</v>
+      </c>
+      <c r="E164" s="20">
+        <f t="shared" si="8"/>
+        <v>2.6514800000000003E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B165" s="20">
+        <f t="shared" ref="B165:E165" si="9">B171/20</f>
+        <v>3.859833E-2</v>
+      </c>
+      <c r="C165" s="20">
+        <f t="shared" si="9"/>
+        <v>0.15491654999999999</v>
+      </c>
+      <c r="D165" s="20">
+        <f t="shared" si="9"/>
+        <v>6.0975500000000002E-4</v>
+      </c>
+      <c r="E165" s="20">
+        <f t="shared" si="9"/>
+        <v>2.5402950000000001E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>99</v>
+      </c>
+      <c r="B166" s="20">
+        <f t="shared" ref="B166:E166" si="10">B172/20</f>
+        <v>0.40262533000000006</v>
+      </c>
+      <c r="C166" s="20">
+        <f t="shared" si="10"/>
+        <v>0.72543951000000007</v>
+      </c>
+      <c r="D166" s="20">
+        <f t="shared" si="10"/>
+        <v>2.1504699999999998E-3</v>
+      </c>
+      <c r="E166" s="20">
+        <f t="shared" si="10"/>
+        <v>1.1569515000000001E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>94</v>
+      </c>
+      <c r="B167" s="20">
+        <f t="shared" ref="B167:E167" si="11">B173/20</f>
+        <v>3.9463380000000006E-2</v>
+      </c>
+      <c r="C167" s="20">
+        <f t="shared" si="11"/>
+        <v>0.12461310499999997</v>
+      </c>
+      <c r="D167" s="20">
+        <f t="shared" si="11"/>
+        <v>6.9374499999999995E-4</v>
+      </c>
+      <c r="E167" s="20">
+        <f t="shared" si="11"/>
+        <v>2.6690849999999999E-3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="B169" s="9">
+        <v>1.4286210000000001</v>
+      </c>
+      <c r="C169" s="9">
+        <v>5.376938899999999</v>
+      </c>
+      <c r="D169" s="9">
+        <v>1.11091E-2</v>
+      </c>
+      <c r="E169" s="9">
+        <v>5.282450000000001E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="B170" s="9">
+        <v>0.78248610000000007</v>
+      </c>
+      <c r="C170" s="9">
+        <v>5.4025488999999993</v>
+      </c>
+      <c r="D170" s="9">
+        <v>1.0897199999999999E-2</v>
+      </c>
+      <c r="E170" s="9">
+        <v>5.302960000000001E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="B171" s="9">
+        <v>0.77196660000000006</v>
+      </c>
+      <c r="C171" s="9">
+        <v>3.0983309999999999</v>
+      </c>
+      <c r="D171" s="9">
+        <v>1.21951E-2</v>
+      </c>
+      <c r="E171" s="9">
+        <v>5.0805900000000001E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="B172" s="9">
+        <v>8.052506600000001</v>
+      </c>
+      <c r="C172" s="9">
+        <v>14.508790200000002</v>
+      </c>
+      <c r="D172" s="9">
+        <v>4.3009399999999996E-2</v>
+      </c>
+      <c r="E172" s="9">
+        <v>0.23139030000000002</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="B173" s="9">
+        <v>0.78926760000000007</v>
+      </c>
+      <c r="C173" s="9">
+        <v>2.4922620999999996</v>
+      </c>
+      <c r="D173" s="9">
+        <v>1.3874899999999999E-2</v>
+      </c>
+      <c r="E173" s="9">
+        <v>5.3381699999999997E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -27701,8 +31587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O277"/>
   <sheetViews>
-    <sheetView topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="A267" sqref="A267:O276"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="I176" sqref="I176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -64267,8 +68153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T103"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:I32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -64337,7 +68223,7 @@
       </c>
     </row>
     <row r="6" spans="3:19">
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="14" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="6">
@@ -64369,7 +68255,7 @@
       </c>
     </row>
     <row r="7" spans="3:19">
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="6">
@@ -64465,7 +68351,7 @@
       </c>
     </row>
     <row r="9" spans="3:19">
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="14" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="6">
@@ -64513,7 +68399,7 @@
       </c>
     </row>
     <row r="10" spans="3:19">
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="6">
@@ -64547,7 +68433,7 @@
       </c>
     </row>
     <row r="12" spans="3:19">
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="14" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="6">
@@ -64564,7 +68450,7 @@
       </c>
     </row>
     <row r="13" spans="3:19">
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="6">
@@ -64988,13 +68874,13 @@
       <c r="M59" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="R59" s="14" t="s">
+      <c r="R59" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="S59" s="14" t="s">
+      <c r="S59" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="T59" s="14"/>
+      <c r="T59" s="23"/>
     </row>
     <row r="60" spans="12:20">
       <c r="M60" t="s">
@@ -65006,7 +68892,7 @@
       <c r="P60" t="s">
         <v>31</v>
       </c>
-      <c r="R60" s="15"/>
+      <c r="R60" s="24"/>
       <c r="S60" t="s">
         <v>25</v>
       </c>
@@ -65192,7 +69078,7 @@
       </c>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="16" t="s">
+      <c r="A88" s="14" t="s">
         <v>25</v>
       </c>
       <c r="B88" s="6">
@@ -65221,7 +69107,7 @@
       </c>
     </row>
     <row r="89" spans="1:10">
-      <c r="A89" s="16" t="s">
+      <c r="A89" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B89" s="6">
@@ -65279,7 +69165,7 @@
       </c>
     </row>
     <row r="91" spans="1:10">
-      <c r="A91" s="16" t="s">
+      <c r="A91" s="14" t="s">
         <v>25</v>
       </c>
       <c r="B91" s="6">
@@ -65308,7 +69194,7 @@
       </c>
     </row>
     <row r="92" spans="1:10">
-      <c r="A92" s="16" t="s">
+      <c r="A92" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B92" s="6">
@@ -65366,114 +69252,114 @@
       </c>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96" s="17" t="s">
+      <c r="A96" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B96" s="17" t="s">
+      <c r="B96" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C96" s="17" t="s">
+      <c r="C96" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="D96" s="17" t="s">
+      <c r="D96" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E96" s="17" t="s">
+      <c r="E96" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="F96" s="17" t="s">
+      <c r="F96" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="G96" s="17" t="s">
+      <c r="G96" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="H96" s="17" t="s">
+      <c r="H96" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="I96" s="17" t="s">
+      <c r="I96" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="J96" s="17" t="s">
+      <c r="J96" s="15" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="97" spans="1:10">
-      <c r="A97" s="19" t="s">
+      <c r="A97" s="17" t="s">
         <v>75</v>
       </c>
       <c r="B97" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C97" s="20">
-        <f>B102/20</f>
+      <c r="C97" s="18">
+        <f t="shared" ref="C97:J98" si="5">B102/20</f>
         <v>5.4236619999999999E-2</v>
       </c>
-      <c r="D97" s="20">
-        <f>C102/20</f>
+      <c r="D97" s="18">
+        <f t="shared" si="5"/>
         <v>3.8640025000000001E-2</v>
       </c>
-      <c r="E97" s="20">
-        <f>D102/20</f>
+      <c r="E97" s="18">
+        <f t="shared" si="5"/>
         <v>2.9798249999999997E-3</v>
       </c>
-      <c r="F97" s="20">
-        <f>E102/20</f>
+      <c r="F97" s="18">
+        <f t="shared" si="5"/>
         <v>1.0279199999999999E-3</v>
       </c>
-      <c r="G97" s="18">
-        <f>F102/20</f>
+      <c r="G97" s="16">
+        <f t="shared" si="5"/>
         <v>4.4700000000000004E-6</v>
       </c>
-      <c r="H97" s="18">
-        <f>G102/20</f>
-        <v>0</v>
-      </c>
-      <c r="I97" s="18">
-        <f>H102/20</f>
-        <v>0</v>
-      </c>
-      <c r="J97" s="18">
-        <f>I102/20</f>
+      <c r="H97" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I97" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J97" s="16">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:10">
-      <c r="A98" s="19" t="s">
+      <c r="A98" s="17" t="s">
         <v>75</v>
       </c>
       <c r="B98" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C98" s="20">
-        <f>B103/20</f>
+      <c r="C98" s="18">
+        <f t="shared" si="5"/>
         <v>5.4467224999999994E-2</v>
       </c>
-      <c r="D98" s="20">
-        <f>C103/20</f>
+      <c r="D98" s="18">
+        <f t="shared" si="5"/>
         <v>3.8176314999999995E-2</v>
       </c>
-      <c r="E98" s="20">
-        <f>D103/20</f>
+      <c r="E98" s="18">
+        <f t="shared" si="5"/>
         <v>2.1836150000000003E-3</v>
       </c>
-      <c r="F98" s="20">
-        <f>E103/20</f>
+      <c r="F98" s="18">
+        <f t="shared" si="5"/>
         <v>6.4250500000000003E-4</v>
       </c>
-      <c r="G98" s="18">
-        <f>F103/20</f>
+      <c r="G98" s="16">
+        <f t="shared" si="5"/>
         <v>3.1649999999999998E-6</v>
       </c>
-      <c r="H98" s="18">
-        <f>G103/20</f>
+      <c r="H98" s="16">
+        <f t="shared" si="5"/>
         <v>1.1566E-4</v>
       </c>
-      <c r="I98" s="18">
-        <f>H103/20</f>
+      <c r="I98" s="16">
+        <f t="shared" si="5"/>
         <v>4.51E-6</v>
       </c>
-      <c r="J98" s="18">
-        <f>I103/20</f>
+      <c r="J98" s="16">
+        <f t="shared" si="5"/>
         <v>1.1545000000000002E-5</v>
       </c>
     </row>
@@ -65601,8 +69487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W12" sqref="W12:Z14"/>
+    <sheetView topLeftCell="I2" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -65788,7 +69674,7 @@
       <c r="F7" s="6">
         <v>9.5083357750000008</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="14" t="s">
         <v>3</v>
       </c>
       <c r="J7" s="6">
@@ -65823,7 +69709,7 @@
       <c r="F8" s="6">
         <v>6.2445066125000004</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="14" t="s">
         <v>4</v>
       </c>
       <c r="J8" s="6">
@@ -65840,7 +69726,7 @@
       </c>
     </row>
     <row r="9" spans="1:26">
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="14" t="s">
         <v>57</v>
       </c>
       <c r="J9" s="6">
@@ -65857,7 +69743,7 @@
       </c>
     </row>
     <row r="10" spans="1:26">
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="14" t="s">
         <v>27</v>
       </c>
       <c r="J10" s="6">
@@ -65904,22 +69790,22 @@
       <c r="M11" s="6">
         <v>5.1364999999999987E-3</v>
       </c>
-      <c r="P11" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q11" s="22">
+      <c r="P11" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q11" s="20">
         <f>W11/20</f>
         <v>1.5641875E-2</v>
       </c>
-      <c r="R11" s="22">
+      <c r="R11" s="20">
         <f t="shared" ref="R11:T11" si="0">X11/20</f>
         <v>9.5883884999999988E-2</v>
       </c>
-      <c r="S11" s="22">
+      <c r="S11" s="20">
         <f t="shared" si="0"/>
         <v>1.5598500000000003E-4</v>
       </c>
-      <c r="T11" s="22">
+      <c r="T11" s="20">
         <f t="shared" si="0"/>
         <v>2.5913999999999999E-4</v>
       </c>
@@ -65937,7 +69823,7 @@
       </c>
     </row>
     <row r="12" spans="1:26">
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="14" t="s">
         <v>3</v>
       </c>
       <c r="J12" s="6">
@@ -65952,22 +69838,22 @@
       <c r="M12" s="6">
         <v>5.1217000000000007E-3</v>
       </c>
-      <c r="P12" s="21" t="s">
+      <c r="P12" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="Q12" s="22">
+      <c r="Q12" s="20">
         <f t="shared" ref="Q12:Q14" si="1">W12/20</f>
         <v>1.4969749999999999E-2</v>
       </c>
-      <c r="R12" s="22">
+      <c r="R12" s="20">
         <f t="shared" ref="R12:R14" si="2">X12/20</f>
         <v>8.8754305000000006E-2</v>
       </c>
-      <c r="S12" s="22">
+      <c r="S12" s="20">
         <f t="shared" ref="S12:S14" si="3">Y12/20</f>
         <v>1.6258500000000003E-4</v>
       </c>
-      <c r="T12" s="22">
+      <c r="T12" s="20">
         <f t="shared" ref="T12:T14" si="4">Z12/20</f>
         <v>2.5608500000000003E-4</v>
       </c>
@@ -65985,7 +69871,7 @@
       </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="14" t="s">
         <v>4</v>
       </c>
       <c r="J13" s="6">
@@ -66000,22 +69886,22 @@
       <c r="M13" s="6">
         <v>5.1288999999999996E-3</v>
       </c>
-      <c r="P13" s="21" t="s">
+      <c r="P13" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="Q13" s="22">
+      <c r="Q13" s="20">
         <f t="shared" si="1"/>
         <v>1.4910960000000001E-2</v>
       </c>
-      <c r="R13" s="22">
+      <c r="R13" s="20">
         <f t="shared" si="2"/>
         <v>8.8794614999999993E-2</v>
       </c>
-      <c r="S13" s="22">
+      <c r="S13" s="20">
         <f t="shared" si="3"/>
         <v>1.3866E-4</v>
       </c>
-      <c r="T13" s="22">
+      <c r="T13" s="20">
         <f t="shared" si="4"/>
         <v>2.56445E-4</v>
       </c>
@@ -66033,7 +69919,7 @@
       </c>
     </row>
     <row r="14" spans="1:26">
-      <c r="I14" s="16" t="s">
+      <c r="I14" s="14" t="s">
         <v>57</v>
       </c>
       <c r="J14" s="6">
@@ -66048,22 +69934,22 @@
       <c r="M14" s="6">
         <v>5.1125999999999993E-3</v>
       </c>
-      <c r="P14" s="21" t="s">
+      <c r="P14" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="Q14" s="22">
+      <c r="Q14" s="20">
         <f t="shared" si="1"/>
         <v>9.3660250000000018E-3</v>
       </c>
-      <c r="R14" s="22">
+      <c r="R14" s="20">
         <f t="shared" si="2"/>
         <v>9.1276125E-2</v>
       </c>
-      <c r="S14" s="22">
+      <c r="S14" s="20">
         <f t="shared" si="3"/>
         <v>9.2225000000000006E-5</v>
       </c>
-      <c r="T14" s="22">
+      <c r="T14" s="20">
         <f t="shared" si="4"/>
         <v>2.5562999999999996E-4</v>
       </c>
@@ -66096,7 +69982,7 @@
       <c r="E15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="14" t="s">
         <v>27</v>
       </c>
       <c r="J15" s="6">
@@ -66233,7 +70119,7 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="6">
@@ -66262,7 +70148,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="6">
@@ -66291,7 +70177,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B29" s="6">
@@ -66320,7 +70206,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B30" s="6">
@@ -66378,7 +70264,7 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B32" s="6">
@@ -66407,7 +70293,7 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B33" s="6">
@@ -66436,7 +70322,7 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B34" s="6">
@@ -66465,7 +70351,7 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B35" s="6">
@@ -66538,7 +70424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z45"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
@@ -66707,7 +70593,7 @@
       <c r="D7" s="6">
         <v>15.741857249999995</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="14" t="s">
         <v>57</v>
       </c>
       <c r="J7" s="6">
@@ -66736,7 +70622,7 @@
       <c r="D8" s="6">
         <v>9.9405569249999974</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="14" t="s">
         <v>55</v>
       </c>
       <c r="J8" s="6">
@@ -66770,7 +70656,7 @@
       </c>
     </row>
     <row r="10" spans="1:26">
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="14" t="s">
         <v>57</v>
       </c>
       <c r="J10" s="6">
@@ -66802,7 +70688,7 @@
       </c>
     </row>
     <row r="11" spans="1:26">
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="14" t="s">
         <v>55</v>
       </c>
       <c r="J11" s="6">
@@ -66817,22 +70703,22 @@
       <c r="M11" s="6">
         <v>5.0014000000000005E-3</v>
       </c>
-      <c r="P11" s="21" t="s">
+      <c r="P11" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="Q11" s="22">
+      <c r="Q11" s="20">
         <f>W11/20</f>
         <v>1.5641875E-2</v>
       </c>
-      <c r="R11" s="22">
+      <c r="R11" s="20">
         <f t="shared" ref="R11:T14" si="0">X11/20</f>
         <v>9.5883884999999988E-2</v>
       </c>
-      <c r="S11" s="22">
+      <c r="S11" s="20">
         <f t="shared" si="0"/>
         <v>1.5598500000000003E-4</v>
       </c>
-      <c r="T11" s="22">
+      <c r="T11" s="20">
         <f t="shared" si="0"/>
         <v>2.5913999999999999E-4</v>
       </c>
@@ -66865,22 +70751,22 @@
       <c r="M12" s="6">
         <v>2.8487374999999992E-2</v>
       </c>
-      <c r="P12" s="21" t="s">
+      <c r="P12" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="Q12" s="22">
+      <c r="Q12" s="20">
         <f t="shared" ref="Q12:Q14" si="1">W12/20</f>
         <v>1.4969749999999999E-2</v>
       </c>
-      <c r="R12" s="22">
+      <c r="R12" s="20">
         <f t="shared" si="0"/>
         <v>8.8754305000000006E-2</v>
       </c>
-      <c r="S12" s="22">
+      <c r="S12" s="20">
         <f t="shared" si="0"/>
         <v>1.6258500000000003E-4</v>
       </c>
-      <c r="T12" s="22">
+      <c r="T12" s="20">
         <f t="shared" si="0"/>
         <v>2.5608500000000003E-4</v>
       </c>
@@ -66898,22 +70784,22 @@
       </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="P13" s="21" t="s">
+      <c r="P13" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="Q13" s="22">
+      <c r="Q13" s="20">
         <f t="shared" si="1"/>
         <v>1.4910960000000001E-2</v>
       </c>
-      <c r="R13" s="22">
+      <c r="R13" s="20">
         <f t="shared" si="0"/>
         <v>8.8794614999999993E-2</v>
       </c>
-      <c r="S13" s="22">
+      <c r="S13" s="20">
         <f t="shared" si="0"/>
         <v>1.3866E-4</v>
       </c>
-      <c r="T13" s="22">
+      <c r="T13" s="20">
         <f t="shared" si="0"/>
         <v>2.56445E-4</v>
       </c>
@@ -66931,22 +70817,22 @@
       </c>
     </row>
     <row r="14" spans="1:26">
-      <c r="P14" s="21" t="s">
+      <c r="P14" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="Q14" s="22">
+      <c r="Q14" s="20">
         <f t="shared" si="1"/>
         <v>9.3660250000000018E-3</v>
       </c>
-      <c r="R14" s="22">
+      <c r="R14" s="20">
         <f t="shared" si="0"/>
         <v>9.1276125E-2</v>
       </c>
-      <c r="S14" s="22">
+      <c r="S14" s="20">
         <f t="shared" si="0"/>
         <v>9.2225000000000006E-5</v>
       </c>
-      <c r="T14" s="22">
+      <c r="T14" s="20">
         <f t="shared" si="0"/>
         <v>2.5562999999999996E-4</v>
       </c>
@@ -67074,7 +70960,7 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B27" s="6">
@@ -67103,7 +70989,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B28" s="6">
@@ -67161,7 +71047,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B30" s="6">
@@ -67190,7 +71076,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B31" s="6">
@@ -67418,7 +71304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+    <sheetView topLeftCell="A63" workbookViewId="0">
       <selection activeCell="L93" sqref="L93"/>
     </sheetView>
   </sheetViews>
@@ -67646,22 +71532,22 @@
       </c>
     </row>
     <row r="11" spans="1:26">
-      <c r="P11" s="21" t="s">
+      <c r="P11" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="Q11" s="22">
+      <c r="Q11" s="20">
         <f>W11/20</f>
         <v>1.5641875E-2</v>
       </c>
-      <c r="R11" s="22">
+      <c r="R11" s="20">
         <f t="shared" ref="R11:T14" si="0">X11/20</f>
         <v>9.5883884999999988E-2</v>
       </c>
-      <c r="S11" s="22">
+      <c r="S11" s="20">
         <f t="shared" si="0"/>
         <v>1.5598500000000003E-4</v>
       </c>
-      <c r="T11" s="22">
+      <c r="T11" s="20">
         <f t="shared" si="0"/>
         <v>2.5913999999999999E-4</v>
       </c>
@@ -67691,22 +71577,22 @@
       <c r="E12" t="s">
         <v>73</v>
       </c>
-      <c r="P12" s="21" t="s">
+      <c r="P12" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="Q12" s="22">
+      <c r="Q12" s="20">
         <f t="shared" ref="Q12:Q14" si="1">W12/20</f>
         <v>1.4969749999999999E-2</v>
       </c>
-      <c r="R12" s="22">
+      <c r="R12" s="20">
         <f t="shared" si="0"/>
         <v>8.8754305000000006E-2</v>
       </c>
-      <c r="S12" s="22">
+      <c r="S12" s="20">
         <f t="shared" si="0"/>
         <v>1.6258500000000003E-4</v>
       </c>
-      <c r="T12" s="22">
+      <c r="T12" s="20">
         <f t="shared" si="0"/>
         <v>2.5608500000000003E-4</v>
       </c>
@@ -67736,22 +71622,22 @@
       <c r="E13">
         <v>5.08</v>
       </c>
-      <c r="P13" s="21" t="s">
+      <c r="P13" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="Q13" s="22">
+      <c r="Q13" s="20">
         <f t="shared" si="1"/>
         <v>1.4910960000000001E-2</v>
       </c>
-      <c r="R13" s="22">
+      <c r="R13" s="20">
         <f t="shared" si="0"/>
         <v>8.8794614999999993E-2</v>
       </c>
-      <c r="S13" s="22">
+      <c r="S13" s="20">
         <f t="shared" si="0"/>
         <v>1.3866E-4</v>
       </c>
-      <c r="T13" s="22">
+      <c r="T13" s="20">
         <f t="shared" si="0"/>
         <v>2.56445E-4</v>
       </c>
@@ -67781,22 +71667,22 @@
       <c r="E14">
         <v>2.37</v>
       </c>
-      <c r="P14" s="21" t="s">
+      <c r="P14" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="Q14" s="22">
+      <c r="Q14" s="20">
         <f t="shared" si="1"/>
         <v>9.3660250000000018E-3</v>
       </c>
-      <c r="R14" s="22">
+      <c r="R14" s="20">
         <f t="shared" si="0"/>
         <v>9.1276125E-2</v>
       </c>
-      <c r="S14" s="22">
+      <c r="S14" s="20">
         <f t="shared" si="0"/>
         <v>9.2225000000000006E-5</v>
       </c>
-      <c r="T14" s="22">
+      <c r="T14" s="20">
         <f t="shared" si="0"/>
         <v>2.5562999999999996E-4</v>
       </c>
@@ -67831,7 +71717,7 @@
       <c r="A16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="21">
         <v>30.42</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -67840,7 +71726,7 @@
       <c r="E16">
         <v>3.59</v>
       </c>
-      <c r="F16" s="23"/>
+      <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="7" t="s">
@@ -67935,7 +71821,7 @@
       </c>
     </row>
     <row r="27" spans="1:20">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B27" s="6">
@@ -67964,7 +71850,7 @@
       </c>
     </row>
     <row r="28" spans="1:20">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B28" s="6">
@@ -68040,7 +71926,7 @@
       </c>
     </row>
     <row r="30" spans="1:20">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B30" s="6">
@@ -68084,7 +71970,7 @@
       </c>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B31" s="6">
@@ -68111,7 +71997,7 @@
       <c r="I31" s="6">
         <v>2.219E-4</v>
       </c>
-      <c r="P31" s="16" t="s">
+      <c r="P31" s="14" t="s">
         <v>57</v>
       </c>
       <c r="Q31" s="6">
@@ -68155,7 +72041,7 @@
       <c r="I32" s="6">
         <v>6.6702500000000002E-4</v>
       </c>
-      <c r="P32" s="16" t="s">
+      <c r="P32" s="14" t="s">
         <v>55</v>
       </c>
       <c r="Q32" s="6">
@@ -68189,7 +72075,7 @@
       </c>
     </row>
     <row r="34" spans="1:20">
-      <c r="P34" s="16" t="s">
+      <c r="P34" s="14" t="s">
         <v>57</v>
       </c>
       <c r="Q34" s="6">
@@ -68206,7 +72092,7 @@
       </c>
     </row>
     <row r="35" spans="1:20">
-      <c r="P35" s="16" t="s">
+      <c r="P35" s="14" t="s">
         <v>55</v>
       </c>
       <c r="Q35" s="6">
@@ -68340,10 +72226,10 @@
       </c>
     </row>
     <row r="40" spans="1:20">
-      <c r="L40" s="17" t="s">
+      <c r="L40" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="M40" s="17" t="s">
+      <c r="M40" s="15" t="s">
         <v>95</v>
       </c>
     </row>
@@ -68351,7 +72237,7 @@
       <c r="L41" s="13">
         <v>1</v>
       </c>
-      <c r="M41" s="24">
+      <c r="M41" s="22">
         <v>0.59</v>
       </c>
     </row>
@@ -68359,7 +72245,7 @@
       <c r="L42" s="13">
         <v>2</v>
       </c>
-      <c r="M42" s="24">
+      <c r="M42" s="22">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -68367,7 +72253,7 @@
       <c r="L43" s="13">
         <v>4</v>
       </c>
-      <c r="M43" s="24">
+      <c r="M43" s="22">
         <v>1.17</v>
       </c>
     </row>
@@ -68399,7 +72285,7 @@
       <c r="L44" s="13">
         <v>8</v>
       </c>
-      <c r="M44" s="24">
+      <c r="M44" s="22">
         <v>1.2</v>
       </c>
     </row>
@@ -68445,8 +72331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z45"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="C17" sqref="A15:C17"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -68613,7 +72499,7 @@
       <c r="D7" s="6">
         <v>25.889242000000003</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="14" t="s">
         <v>57</v>
       </c>
       <c r="J7" s="6">
@@ -68642,7 +72528,7 @@
       <c r="D8" s="6">
         <v>15.706099675000001</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="14" t="s">
         <v>55</v>
       </c>
       <c r="J8" s="6">
@@ -68676,7 +72562,7 @@
       </c>
     </row>
     <row r="10" spans="1:26">
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="14" t="s">
         <v>57</v>
       </c>
       <c r="J10" s="6">
@@ -68708,7 +72594,7 @@
       </c>
     </row>
     <row r="11" spans="1:26">
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="14" t="s">
         <v>55</v>
       </c>
       <c r="J11" s="6">
@@ -68723,22 +72609,22 @@
       <c r="M11" s="6">
         <v>5.0014000000000005E-3</v>
       </c>
-      <c r="P11" s="21" t="s">
+      <c r="P11" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="Q11" s="22">
+      <c r="Q11" s="20">
         <f>W11/20</f>
         <v>1.5641875E-2</v>
       </c>
-      <c r="R11" s="22">
+      <c r="R11" s="20">
         <f t="shared" ref="R11:T14" si="0">X11/20</f>
         <v>9.5883884999999988E-2</v>
       </c>
-      <c r="S11" s="22">
+      <c r="S11" s="20">
         <f t="shared" si="0"/>
         <v>1.5598500000000003E-4</v>
       </c>
-      <c r="T11" s="22">
+      <c r="T11" s="20">
         <f t="shared" si="0"/>
         <v>2.5913999999999999E-4</v>
       </c>
@@ -68771,22 +72657,22 @@
       <c r="M12" s="6">
         <v>2.8487374999999992E-2</v>
       </c>
-      <c r="P12" s="21" t="s">
+      <c r="P12" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="Q12" s="22">
+      <c r="Q12" s="20">
         <f t="shared" ref="Q12:Q14" si="1">W12/20</f>
         <v>1.4969749999999999E-2</v>
       </c>
-      <c r="R12" s="22">
+      <c r="R12" s="20">
         <f t="shared" si="0"/>
         <v>8.8754305000000006E-2</v>
       </c>
-      <c r="S12" s="22">
+      <c r="S12" s="20">
         <f t="shared" si="0"/>
         <v>1.6258500000000003E-4</v>
       </c>
-      <c r="T12" s="22">
+      <c r="T12" s="20">
         <f t="shared" si="0"/>
         <v>2.5608500000000003E-4</v>
       </c>
@@ -68804,22 +72690,22 @@
       </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="P13" s="21" t="s">
+      <c r="P13" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="Q13" s="22">
+      <c r="Q13" s="20">
         <f t="shared" si="1"/>
         <v>1.4910960000000001E-2</v>
       </c>
-      <c r="R13" s="22">
+      <c r="R13" s="20">
         <f t="shared" si="0"/>
         <v>8.8794614999999993E-2</v>
       </c>
-      <c r="S13" s="22">
+      <c r="S13" s="20">
         <f t="shared" si="0"/>
         <v>1.3866E-4</v>
       </c>
-      <c r="T13" s="22">
+      <c r="T13" s="20">
         <f t="shared" si="0"/>
         <v>2.56445E-4</v>
       </c>
@@ -68837,22 +72723,22 @@
       </c>
     </row>
     <row r="14" spans="1:26">
-      <c r="P14" s="21" t="s">
+      <c r="P14" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="Q14" s="22">
+      <c r="Q14" s="20">
         <f t="shared" si="1"/>
         <v>9.3660250000000018E-3</v>
       </c>
-      <c r="R14" s="22">
+      <c r="R14" s="20">
         <f t="shared" si="0"/>
         <v>9.1276125E-2</v>
       </c>
-      <c r="S14" s="22">
+      <c r="S14" s="20">
         <f t="shared" si="0"/>
         <v>9.2225000000000006E-5</v>
       </c>
-      <c r="T14" s="22">
+      <c r="T14" s="20">
         <f t="shared" si="0"/>
         <v>2.5562999999999996E-4</v>
       </c>
@@ -68980,7 +72866,7 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="6">
@@ -69009,7 +72895,7 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="14" t="s">
         <v>63</v>
       </c>
       <c r="B28" s="6">
@@ -69067,7 +72953,7 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B30" s="6">
@@ -69096,7 +72982,7 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="14" t="s">
         <v>63</v>
       </c>
       <c r="B31" s="6">

--- a/misc/performance/results.xlsx
+++ b/misc/performance/results.xlsx
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId11"/>
+    <pivotCache cacheId="2" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2495" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2497" uniqueCount="104">
   <si>
     <t>No optimisations</t>
   </si>
@@ -332,6 +332,18 @@
   <si>
     <t>Optimised Multi Threaded</t>
   </si>
+  <si>
+    <t>BeagleBone: Optimised Single Threaded (2)</t>
+  </si>
+  <si>
+    <t>BeagleBone: Naïve</t>
+  </si>
+  <si>
+    <t>Odroid: Naïve</t>
+  </si>
+  <si>
+    <t>Odroid: Optimised Single Threaded (2)</t>
+  </si>
 </sst>
 </file>
 
@@ -453,8 +465,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="703">
+  <cellStyleXfs count="707">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1205,16 +1221,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="703">
+  <cellStyles count="707">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1566,6 +1582,8 @@
     <cellStyle name="Followed Hyperlink" xfId="698" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="700" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="702" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="704" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="706" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1917,24 +1935,11 @@
     <cellStyle name="Hyperlink" xfId="697" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="699" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="701" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="703" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="705" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -2242,11 +2247,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2075765960"/>
-        <c:axId val="2075769320"/>
+        <c:axId val="2089701256"/>
+        <c:axId val="2074742920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2075765960"/>
+        <c:axId val="2089701256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2268,7 +2273,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -2284,7 +2288,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2075769320"/>
+        <c:crossAx val="2074742920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2292,7 +2296,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2075769320"/>
+        <c:axId val="2074742920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2320,7 +2324,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -2337,14 +2340,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2075765960"/>
+        <c:crossAx val="2089701256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2412,28 +2414,40 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Summary!$A$82:$A$83</c:f>
+              <c:f>Summary!$A$82:$A$85</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Standard</c:v>
+                  <c:v>BeagleBone: Naïve</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Optimised Single Threaded (2)</c:v>
+                  <c:v>BeagleBone: Optimised Single Threaded (2)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Odroid: Naïve</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Odroid: Optimised Single Threaded (2)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$B$82:$B$83</c:f>
+              <c:f>Summary!$B$82:$B$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.113148235</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.054467225</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2457,29 +2471,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Summary!$A$82:$A$83</c:f>
+              <c:f>Summary!$A$82:$A$85</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Standard</c:v>
+                  <c:v>BeagleBone: Naïve</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Optimised Single Threaded (2)</c:v>
+                  <c:v>BeagleBone: Optimised Single Threaded (2)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Odroid: Naïve</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Odroid: Optimised Single Threaded (2)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$C$82:$C$83</c:f>
+              <c:f>Summary!$C$82:$C$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.13373724</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.0931043</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.038176315</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01449697</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2502,29 +2528,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Summary!$A$82:$A$83</c:f>
+              <c:f>Summary!$A$82:$A$85</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Standard</c:v>
+                  <c:v>BeagleBone: Naïve</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Optimised Single Threaded (2)</c:v>
+                  <c:v>BeagleBone: Optimised Single Threaded (2)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Odroid: Naïve</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Odroid: Optimised Single Threaded (2)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$D$82:$D$83</c:f>
+              <c:f>Summary!$D$82:$D$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.01409409</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.01659352</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.002183615</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00420331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2547,29 +2585,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Summary!$A$82:$A$83</c:f>
+              <c:f>Summary!$A$82:$A$85</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Standard</c:v>
+                  <c:v>BeagleBone: Naïve</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Optimised Single Threaded (2)</c:v>
+                  <c:v>BeagleBone: Optimised Single Threaded (2)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Odroid: Naïve</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Odroid: Optimised Single Threaded (2)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$E$82:$E$83</c:f>
+              <c:f>Summary!$E$82:$E$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.005767945</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.01404452</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000642505</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.003768695</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2592,29 +2642,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Summary!$A$82:$A$83</c:f>
+              <c:f>Summary!$A$82:$A$85</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Standard</c:v>
+                  <c:v>BeagleBone: Naïve</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Optimised Single Threaded (2)</c:v>
+                  <c:v>BeagleBone: Optimised Single Threaded (2)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Odroid: Naïve</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Odroid: Optimised Single Threaded (2)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$F$82:$F$83</c:f>
+              <c:f>Summary!$F$82:$F$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1.4195E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6.435E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.165E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2637,29 +2699,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Summary!$A$82:$A$83</c:f>
+              <c:f>Summary!$A$82:$A$85</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Standard</c:v>
+                  <c:v>BeagleBone: Naïve</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Optimised Single Threaded (2)</c:v>
+                  <c:v>BeagleBone: Optimised Single Threaded (2)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Odroid: Naïve</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Odroid: Optimised Single Threaded (2)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$G$82:$G$83</c:f>
+              <c:f>Summary!$G$82:$G$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.000687025</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.00021739</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00011566</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6245E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2682,29 +2756,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Summary!$A$82:$A$83</c:f>
+              <c:f>Summary!$A$82:$A$85</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Standard</c:v>
+                  <c:v>BeagleBone: Naïve</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Optimised Single Threaded (2)</c:v>
+                  <c:v>BeagleBone: Optimised Single Threaded (2)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Odroid: Naïve</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Odroid: Optimised Single Threaded (2)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$H$82:$H$83</c:f>
+              <c:f>Summary!$H$82:$H$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1.931E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.1485E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.51E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.42E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2727,29 +2813,41 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Summary!$A$82:$A$83</c:f>
+              <c:f>Summary!$A$82:$A$85</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Standard</c:v>
+                  <c:v>BeagleBone: Naïve</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Optimised Single Threaded (2)</c:v>
+                  <c:v>BeagleBone: Optimised Single Threaded (2)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Odroid: Naïve</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Odroid: Optimised Single Threaded (2)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary!$I$82:$I$83</c:f>
+              <c:f>Summary!$I$82:$I$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>5.9505E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6.069E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1545E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.119E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2765,11 +2863,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2133516712"/>
-        <c:axId val="2133519720"/>
+        <c:axId val="2087966488"/>
+        <c:axId val="2087964536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2133516712"/>
+        <c:axId val="2087966488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2783,12 +2881,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="1" i="0"/>
+              <a:defRPr sz="1400" b="1" i="0"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2133519720"/>
+        <c:crossAx val="2087964536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2796,7 +2894,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2133519720"/>
+        <c:axId val="2087964536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2836,7 +2934,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2133516712"/>
+        <c:crossAx val="2087966488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3264,11 +3362,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2089050072"/>
-        <c:axId val="2088819528"/>
+        <c:axId val="2137371672"/>
+        <c:axId val="2137820136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2089050072"/>
+        <c:axId val="2137371672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3287,7 +3385,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2088819528"/>
+        <c:crossAx val="2137820136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3295,7 +3393,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2088819528"/>
+        <c:axId val="2137820136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3335,7 +3433,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2089050072"/>
+        <c:crossAx val="2137371672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3693,11 +3791,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2132843112"/>
-        <c:axId val="2132849736"/>
+        <c:axId val="2137801128"/>
+        <c:axId val="2137805800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2132843112"/>
+        <c:axId val="2137801128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3716,7 +3814,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2132849736"/>
+        <c:crossAx val="2137805800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3724,7 +3822,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2132849736"/>
+        <c:axId val="2137805800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3764,7 +3862,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2132843112"/>
+        <c:crossAx val="2137801128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4122,11 +4220,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2136765400"/>
-        <c:axId val="2136768632"/>
+        <c:axId val="2132207112"/>
+        <c:axId val="2078470584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2136765400"/>
+        <c:axId val="2132207112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4145,7 +4243,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2136768632"/>
+        <c:crossAx val="2078470584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4153,7 +4251,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2136768632"/>
+        <c:axId val="2078470584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4193,7 +4291,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2136765400"/>
+        <c:crossAx val="2132207112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4679,11 +4777,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2075834264"/>
-        <c:axId val="2075839768"/>
+        <c:axId val="2132405064"/>
+        <c:axId val="2138714936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2075834264"/>
+        <c:axId val="2132405064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4705,7 +4803,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -4721,7 +4818,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2075839768"/>
+        <c:crossAx val="2138714936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4729,7 +4826,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2075839768"/>
+        <c:axId val="2138714936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4757,7 +4854,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4774,7 +4870,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2075834264"/>
+        <c:crossAx val="2132405064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5117,11 +5213,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2075015080"/>
-        <c:axId val="2075018360"/>
+        <c:axId val="2137878776"/>
+        <c:axId val="2137808232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2075015080"/>
+        <c:axId val="2137878776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5140,7 +5236,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2075018360"/>
+        <c:crossAx val="2137808232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5148,7 +5244,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2075018360"/>
+        <c:axId val="2137808232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5171,7 +5267,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="0"/>
@@ -5188,14 +5283,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2075015080"/>
+        <c:crossAx val="2137878776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -5616,11 +5710,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2075104360"/>
-        <c:axId val="2075107368"/>
+        <c:axId val="2137491816"/>
+        <c:axId val="2137430136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2075104360"/>
+        <c:axId val="2137491816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5639,7 +5733,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2075107368"/>
+        <c:crossAx val="2137430136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5647,7 +5741,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2075107368"/>
+        <c:axId val="2137430136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5670,7 +5764,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="0"/>
@@ -5687,14 +5780,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2075104360"/>
+        <c:crossAx val="2137491816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -5817,11 +5909,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2072846120"/>
-        <c:axId val="2072849144"/>
+        <c:axId val="2096923576"/>
+        <c:axId val="2087962952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2072846120"/>
+        <c:axId val="2096923576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5840,7 +5932,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2072849144"/>
+        <c:crossAx val="2087962952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5848,7 +5940,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2072849144"/>
+        <c:axId val="2087962952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5871,7 +5963,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
@@ -5888,7 +5979,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2072846120"/>
+        <c:crossAx val="2096923576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6008,11 +6099,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2072887560"/>
-        <c:axId val="2072890600"/>
+        <c:axId val="2088902024"/>
+        <c:axId val="2096828440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2072887560"/>
+        <c:axId val="2088902024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6031,7 +6122,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2072890600"/>
+        <c:crossAx val="2096828440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6039,7 +6130,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2072890600"/>
+        <c:axId val="2096828440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6062,7 +6153,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
@@ -6079,7 +6169,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2072887560"/>
+        <c:crossAx val="2088902024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6492,11 +6582,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2072971080"/>
-        <c:axId val="2072974088"/>
+        <c:axId val="2137483736"/>
+        <c:axId val="2137690248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2072971080"/>
+        <c:axId val="2137483736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6515,7 +6605,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2072974088"/>
+        <c:crossAx val="2137690248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6523,7 +6613,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2072974088"/>
+        <c:axId val="2137690248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6546,7 +6636,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="0"/>
@@ -6563,14 +6652,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2072971080"/>
+        <c:crossAx val="2137483736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -6705,11 +6793,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2073008904"/>
-        <c:axId val="2073011944"/>
+        <c:axId val="2089130696"/>
+        <c:axId val="2074809448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2073008904"/>
+        <c:axId val="2089130696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6728,7 +6816,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2073011944"/>
+        <c:crossAx val="2074809448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6736,7 +6824,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2073011944"/>
+        <c:axId val="2074809448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6776,7 +6864,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2073008904"/>
+        <c:crossAx val="2089130696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6903,11 +6991,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2072329400"/>
-        <c:axId val="2072326344"/>
+        <c:axId val="2096995576"/>
+        <c:axId val="2088658696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2072329400"/>
+        <c:axId val="2096995576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6926,7 +7014,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2072326344"/>
+        <c:crossAx val="2088658696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6934,7 +7022,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2072326344"/>
+        <c:axId val="2088658696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6974,7 +7062,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2072329400"/>
+        <c:crossAx val="2096995576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16384,40 +16472,43 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="A85:I93" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="L59:P65" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="24">
     <pivotField axis="axisRow" showAll="0">
       <items count="5">
         <item x="0"/>
-        <item h="1" x="2"/>
+        <item x="2"/>
         <item x="1"/>
         <item h="1" x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+    <pivotField axis="axisCol" showAll="0">
       <items count="9">
-        <item h="1" x="5"/>
         <item h="1" x="0"/>
         <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="6"/>
         <item x="1"/>
         <item h="1" x="7"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="3"/>
+        <item h="1" x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
+    <pivotField axis="axisCol" showAll="0">
       <items count="4">
         <item x="0"/>
         <item x="1"/>
-        <item h="1" x="2"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -16425,91 +16516,58 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="2">
+  <rowFields count="1">
     <field x="0"/>
-    <field x="2"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="4">
     <i>
       <x/>
     </i>
-    <i r="1">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x v="2"/>
       <x/>
     </i>
     <i r="1">
       <x v="1"/>
     </i>
-    <i>
+    <i t="default">
       <x v="2"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
     </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-    <i i="5">
-      <x v="5"/>
-    </i>
-    <i i="6">
-      <x v="6"/>
-    </i>
-    <i i="7">
-      <x v="7"/>
-    </i>
   </colItems>
-  <pageFields count="1">
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="8">
-    <dataField name="medianBlur avg" fld="11" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Canny avg" fld="12" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="findContours avg" fld="13" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="approxPolydp1 avg" fld="14" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="getIndexOfOuterSquare avg" fld="15" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="approxPolyDP2 avg" fld="16" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="labelPolygons avg" fld="17" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="labelCorners avg" fld="18" subtotal="average" baseField="0" baseItem="0"/>
+  <dataFields count="1">
+    <dataField name="Average of fps" fld="6" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="20">
+    <format dxfId="15">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -16523,7 +16581,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="I4:M12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="24">
     <pivotField axis="axisRow" showAll="0">
@@ -16632,7 +16690,7 @@
     <dataField name="estimatePose avg" fld="10" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="16">
+    <format dxfId="11">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -16646,7 +16704,130 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="P28:T36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="24">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item h="1" x="2"/>
+        <item x="1"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="5"/>
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="4">
+    <dataField name="capture avg" fld="7" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="detectCorners avg" fld="8" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="calibrateImagePoints avg" fld="9" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="estimatePose avg" fld="10" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="6">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A24:I32" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="24">
     <pivotField axis="axisRow" showAll="0">
@@ -16771,130 +16952,7 @@
     <dataField name="labelCorners avg" fld="18" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="11">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="P28:T36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="24">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item h="1" x="2"/>
-        <item x="1"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="5"/>
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="4">
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="4">
-    <dataField name="capture avg" fld="7" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="detectCorners avg" fld="8" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="calibrateImagePoints avg" fld="9" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="estimatePose avg" fld="10" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="12">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -16908,7 +16966,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A4:I9" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="24">
     <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
@@ -17024,7 +17082,7 @@
     <dataField name="Average of fps" fld="6" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="13">
+    <format dxfId="8">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -17038,7 +17096,130 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="I4:M12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="24">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item h="1" x="2"/>
+        <item x="1"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="5"/>
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item h="1" x="1"/>
+        <item h="1" x="7"/>
+        <item h="1" x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="4">
+    <dataField name="capture avg" fld="7" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="detectCorners avg" fld="8" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="calibrateImagePoints avg" fld="9" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="estimatePose avg" fld="10" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="3">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A24:I32" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="24">
     <pivotField axis="axisRow" showAll="0">
@@ -17163,130 +17344,7 @@
     <dataField name="labelCorners avg" fld="18" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="8">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="I4:M12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="24">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item h="1" x="2"/>
-        <item x="1"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="5"/>
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item h="1" x="1"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="4">
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="4">
-    <dataField name="capture avg" fld="7" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="detectCorners avg" fld="8" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="calibrateImagePoints avg" fld="9" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="estimatePose avg" fld="10" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="9">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -17300,7 +17358,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A4:D8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="24">
     <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
@@ -17390,7 +17448,7 @@
     <dataField name="Average of fps" fld="6" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="10">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -17404,7 +17462,146 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="A64:I72" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="24">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item h="1" x="2"/>
+        <item x="1"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="5"/>
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+    <i i="6">
+      <x v="6"/>
+    </i>
+    <i i="7">
+      <x v="7"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="8">
+    <dataField name="medianBlur avg" fld="11" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Canny avg" fld="12" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="findContours avg" fld="13" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="approxPolydp1 avg" fld="14" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="getIndexOfOuterSquare avg" fld="15" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="approxPolyDP2 avg" fld="16" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="labelPolygons avg" fld="17" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="labelCorners avg" fld="18" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A109:E135" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="24">
     <pivotField axis="axisRow" showAll="0">
@@ -17589,147 +17786,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="A64:I72" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="24">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item h="1" x="2"/>
-        <item x="1"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="5"/>
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="4">
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-    <i i="5">
-      <x v="5"/>
-    </i>
-    <i i="6">
-      <x v="6"/>
-    </i>
-    <i i="7">
-      <x v="7"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="8">
-    <dataField name="medianBlur avg" fld="11" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Canny avg" fld="12" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="findContours avg" fld="13" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="approxPolydp1 avg" fld="14" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="getIndexOfOuterSquare avg" fld="15" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="approxPolyDP2 avg" fld="16" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="labelPolygons avg" fld="17" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="labelCorners avg" fld="18" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="6">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A4:I10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="24">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -17841,7 +17899,7 @@
     <dataField name="Average of fps" fld="6" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="7">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -17855,8 +17913,147 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="L59:P65" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="A85:I93" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="24">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item h="1" x="2"/>
+        <item x="1"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" x="5"/>
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="6"/>
+        <item x="1"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+    <i i="6">
+      <x v="6"/>
+    </i>
+    <i i="7">
+      <x v="7"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="8">
+    <dataField name="medianBlur avg" fld="11" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Canny avg" fld="12" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="findContours avg" fld="13" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="approxPolydp1 avg" fld="14" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="getIndexOfOuterSquare avg" fld="15" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="approxPolyDP2 avg" fld="16" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="labelPolygons avg" fld="17" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="labelCorners avg" fld="18" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="16">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="A20:I25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="24">
     <pivotField axis="axisRow" showAll="0">
       <items count="5">
@@ -17867,31 +18064,28 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisCol" showAll="0">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="9">
+        <item h="1" x="5"/>
         <item h="1" x="0"/>
         <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="6"/>
         <item x="1"/>
         <item h="1" x="7"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="3"/>
-        <item h="1" x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisCol" showAll="0">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="4">
-        <item x="0"/>
+        <item h="1" x="0"/>
         <item x="1"/>
-        <item x="2"/>
+        <item h="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -17899,11 +18093,14 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
@@ -17927,30 +18124,51 @@
       <x/>
     </i>
   </rowItems>
-  <colFields count="2">
-    <field x="1"/>
-    <field x="2"/>
+  <colFields count="1">
+    <field x="-2"/>
   </colFields>
-  <colItems count="4">
+  <colItems count="8">
     <i>
-      <x v="2"/>
       <x/>
     </i>
-    <i r="1">
+    <i i="1">
       <x v="1"/>
     </i>
-    <i t="default">
+    <i i="2">
       <x v="2"/>
     </i>
-    <i t="grand">
-      <x/>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+    <i i="6">
+      <x v="6"/>
+    </i>
+    <i i="7">
+      <x v="7"/>
     </i>
   </colItems>
-  <dataFields count="1">
-    <dataField name="Average of fps" fld="6" subtotal="average" baseField="0" baseItem="0" numFmtId="2"/>
+  <pageFields count="2">
+    <pageField fld="2" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="8">
+    <dataField name="medianBlur avg" fld="11" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Canny avg" fld="12" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="findContours avg" fld="13" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="approxPolydp1 avg" fld="14" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="getIndexOfOuterSquare avg" fld="15" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="approxPolyDP2 avg" fld="16" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="labelPolygons avg" fld="17" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="labelCorners avg" fld="18" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="21">
+    <format dxfId="17">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -17963,8 +18181,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="C3:G14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="24">
     <pivotField axis="axisRow" showAll="0">
@@ -18082,7 +18300,7 @@
     <dataField name="estimatePose avg" fld="10" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="22">
+    <format dxfId="18">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -18095,29 +18313,29 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="A20:I25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="I4:M16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="24">
     <pivotField axis="axisRow" showAll="0">
       <items count="5">
         <item x="0"/>
-        <item x="2"/>
+        <item h="1" x="2"/>
         <item x="1"/>
         <item h="1" x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
       <items count="9">
         <item h="1" x="5"/>
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
         <item h="1" x="4"/>
-        <item h="1" x="6"/>
         <item x="1"/>
         <item h="1" x="7"/>
+        <item h="1" x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -18133,36 +18351,58 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="1">
+  <rowFields count="2">
     <field x="0"/>
+    <field x="1"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="11">
     <i>
       <x/>
     </i>
-    <i>
+    <i r="1">
       <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
     </i>
     <i>
       <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -18171,7 +18411,7 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="8">
+  <colItems count="4">
     <i>
       <x/>
     </i>
@@ -18184,35 +18424,18 @@
     <i i="3">
       <x v="3"/>
     </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-    <i i="5">
-      <x v="5"/>
-    </i>
-    <i i="6">
-      <x v="6"/>
-    </i>
-    <i i="7">
-      <x v="7"/>
-    </i>
   </colItems>
-  <pageFields count="2">
+  <pageFields count="1">
     <pageField fld="2" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
   </pageFields>
-  <dataFields count="8">
-    <dataField name="medianBlur avg" fld="11" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Canny avg" fld="12" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="findContours avg" fld="13" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="approxPolydp1 avg" fld="14" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="getIndexOfOuterSquare avg" fld="15" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="approxPolyDP2 avg" fld="16" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="labelPolygons avg" fld="17" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="labelCorners avg" fld="18" subtotal="average" baseField="0" baseItem="0"/>
+  <dataFields count="4">
+    <dataField name="capture avg" fld="7" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="detectCorners avg" fld="8" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="calibrateImagePoints avg" fld="9" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="estimatePose avg" fld="10" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="23">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -18225,8 +18448,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A24:I36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="24">
     <pivotField axis="axisRow" showAll="0">
@@ -18363,142 +18586,7 @@
     <dataField name="labelCorners avg" fld="18" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="17">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="I4:M16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="24">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item h="1" x="2"/>
-        <item x="1"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" x="5"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item h="1" x="4"/>
-        <item x="1"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="4">
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="4">
-    <dataField name="capture avg" fld="7" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="detectCorners avg" fld="8" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="calibrateImagePoints avg" fld="9" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="estimatePose avg" fld="10" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="18">
+    <format dxfId="13">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -18512,7 +18600,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A4:F8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="24">
     <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
@@ -18608,7 +18696,7 @@
     <dataField name="Average of fps" fld="6" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="19">
+    <format dxfId="14">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -18622,7 +18710,111 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="A4:D8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="24">
+    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item h="1" x="2"/>
+        <item x="1"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0" sortType="descending">
+      <items count="9">
+        <item h="1" x="7"/>
+        <item h="1" x="1"/>
+        <item h="1" x="6"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Average of fps" fld="6" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="9">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A24:I32" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="24">
     <pivotField axis="axisRow" showAll="0">
@@ -18747,111 +18939,7 @@
     <dataField name="labelCorners avg" fld="18" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="14">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="A4:D8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="24">
-    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item h="1" x="2"/>
-        <item x="1"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0" sortType="descending">
-      <items count="9">
-        <item h="1" x="7"/>
-        <item h="1" x="1"/>
-        <item h="1" x="6"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="4">
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Average of fps" fld="6" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="15">
+    <format dxfId="10">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -29841,8 +29929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H58" workbookViewId="0">
-      <selection activeCell="V76" sqref="V76"/>
+    <sheetView tabSelected="1" topLeftCell="G59" workbookViewId="0">
+      <selection activeCell="W73" sqref="W73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -30438,7 +30526,7 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B82">
         <f>B89/20</f>
@@ -30475,7 +30563,7 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B83">
         <f>B90/20</f>
@@ -30510,6 +30598,80 @@
         <v>6.0690000000000003E-5</v>
       </c>
     </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>102</v>
+      </c>
+      <c r="B84">
+        <f>B91/20</f>
+        <v>5.4467224999999994E-2</v>
+      </c>
+      <c r="C84">
+        <f t="shared" ref="C84:I84" si="1">C91/20</f>
+        <v>3.8176314999999995E-2</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="1"/>
+        <v>2.1836150000000003E-3</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="1"/>
+        <v>6.4250500000000003E-4</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="1"/>
+        <v>3.1649999999999998E-6</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="1"/>
+        <v>1.1566E-4</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="1"/>
+        <v>4.51E-6</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="1"/>
+        <v>1.1545000000000002E-5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>103</v>
+      </c>
+      <c r="B85">
+        <f>B92/20</f>
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <f t="shared" ref="C85:I85" si="2">C92/20</f>
+        <v>1.4496970000000001E-2</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="2"/>
+        <v>4.20331E-3</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="2"/>
+        <v>3.7686949999999999E-3</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="2"/>
+        <v>2.8000000000000003E-6</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="2"/>
+        <v>2.6245E-5</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="2"/>
+        <v>5.4200000000000006E-6</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="2"/>
+        <v>1.119E-5</v>
+      </c>
+    </row>
     <row r="89" spans="1:9">
       <c r="B89" s="9">
         <v>2.2629646999999999</v>
@@ -30562,6 +30724,58 @@
         <v>1.2138000000000001E-3</v>
       </c>
     </row>
+    <row r="91" spans="1:9">
+      <c r="B91" s="9">
+        <v>1.0893444999999999</v>
+      </c>
+      <c r="C91" s="9">
+        <v>0.76352629999999988</v>
+      </c>
+      <c r="D91" s="9">
+        <v>4.3672300000000004E-2</v>
+      </c>
+      <c r="E91" s="9">
+        <v>1.28501E-2</v>
+      </c>
+      <c r="F91" s="9">
+        <v>6.3299999999999994E-5</v>
+      </c>
+      <c r="G91" s="9">
+        <v>2.3132000000000001E-3</v>
+      </c>
+      <c r="H91" s="9">
+        <v>9.0199999999999997E-5</v>
+      </c>
+      <c r="I91" s="9">
+        <v>2.3090000000000003E-4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="B92" s="9">
+        <v>0</v>
+      </c>
+      <c r="C92" s="9">
+        <v>0.28993940000000001</v>
+      </c>
+      <c r="D92" s="9">
+        <v>8.4066200000000008E-2</v>
+      </c>
+      <c r="E92" s="9">
+        <v>7.5373899999999994E-2</v>
+      </c>
+      <c r="F92" s="9">
+        <v>5.6000000000000006E-5</v>
+      </c>
+      <c r="G92" s="9">
+        <v>5.2490000000000002E-4</v>
+      </c>
+      <c r="H92" s="9">
+        <v>1.0840000000000001E-4</v>
+      </c>
+      <c r="I92" s="9">
+        <v>2.2379999999999999E-4</v>
+      </c>
+    </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
         <v>75</v>
@@ -30605,31 +30819,31 @@
         <v>5.4467224999999994E-2</v>
       </c>
       <c r="C96">
-        <f t="shared" ref="C96:I97" si="1">C101/20</f>
+        <f t="shared" ref="C96:I97" si="3">C101/20</f>
         <v>3.8176314999999995E-2</v>
       </c>
       <c r="D96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.1836150000000003E-3</v>
       </c>
       <c r="E96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.4250500000000003E-4</v>
       </c>
       <c r="F96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.1649999999999998E-6</v>
       </c>
       <c r="G96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.1566E-4</v>
       </c>
       <c r="H96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.51E-6</v>
       </c>
       <c r="I96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.1545000000000002E-5</v>
       </c>
     </row>
@@ -30642,31 +30856,31 @@
         <v>0</v>
       </c>
       <c r="C97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.4496970000000001E-2</v>
       </c>
       <c r="D97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.20331E-3</v>
       </c>
       <c r="E97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.7686949999999999E-3</v>
       </c>
       <c r="F97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.8000000000000003E-6</v>
       </c>
       <c r="G97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.6245E-5</v>
       </c>
       <c r="H97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.4200000000000006E-6</v>
       </c>
       <c r="I97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.119E-5</v>
       </c>
     </row>
@@ -30787,7 +31001,7 @@
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="25">
+      <c r="A113" s="23">
         <v>1</v>
       </c>
       <c r="B113" s="6">
@@ -30804,7 +31018,7 @@
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="25">
+      <c r="A114" s="23">
         <v>2</v>
       </c>
       <c r="B114" s="6">
@@ -30838,7 +31052,7 @@
       </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="25">
+      <c r="A116" s="23">
         <v>1</v>
       </c>
       <c r="B116" s="6">
@@ -30872,7 +31086,7 @@
       </c>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="25">
+      <c r="A118" s="23">
         <v>1</v>
       </c>
       <c r="B118" s="6">
@@ -30906,7 +31120,7 @@
       </c>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="25">
+      <c r="A120" s="23">
         <v>1</v>
       </c>
       <c r="B120" s="6">
@@ -30940,7 +31154,7 @@
       </c>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="25">
+      <c r="A122" s="23">
         <v>1</v>
       </c>
       <c r="B122" s="6">
@@ -30991,7 +31205,7 @@
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="25">
+      <c r="A125" s="23">
         <v>1</v>
       </c>
       <c r="B125" s="6">
@@ -31008,7 +31222,7 @@
       </c>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="25">
+      <c r="A126" s="23">
         <v>2</v>
       </c>
       <c r="B126" s="6">
@@ -31042,7 +31256,7 @@
       </c>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="25">
+      <c r="A128" s="23">
         <v>1</v>
       </c>
       <c r="B128" s="6">
@@ -31076,7 +31290,7 @@
       </c>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="25">
+      <c r="A130" s="23">
         <v>1</v>
       </c>
       <c r="B130" s="6">
@@ -31110,7 +31324,7 @@
       </c>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="25">
+      <c r="A132" s="23">
         <v>1</v>
       </c>
       <c r="B132" s="6">
@@ -31144,7 +31358,7 @@
       </c>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="25">
+      <c r="A134" s="23">
         <v>1</v>
       </c>
       <c r="B134" s="6">
@@ -31208,15 +31422,15 @@
         <v>1.5641875E-2</v>
       </c>
       <c r="C149" s="20">
-        <f t="shared" ref="C149:E150" si="2">C155/20</f>
+        <f t="shared" ref="C149:E149" si="4">C155/20</f>
         <v>9.5883884999999988E-2</v>
       </c>
       <c r="D149" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.55985E-4</v>
       </c>
       <c r="E149" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5914000000000004E-4</v>
       </c>
     </row>
@@ -31225,19 +31439,19 @@
         <v>87</v>
       </c>
       <c r="B150" s="20">
-        <f t="shared" ref="B150:E150" si="3">B156/20</f>
+        <f t="shared" ref="B150:E150" si="5">B156/20</f>
         <v>9.3660250000000018E-3</v>
       </c>
       <c r="C150" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9.1276125E-2</v>
       </c>
       <c r="D150" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9.2225000000000006E-5</v>
       </c>
       <c r="E150" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.5562999999999996E-4</v>
       </c>
     </row>
@@ -31246,19 +31460,19 @@
         <v>89</v>
       </c>
       <c r="B151" s="20">
-        <f t="shared" ref="B151:E151" si="4">B157/20</f>
+        <f t="shared" ref="B151:E151" si="6">B157/20</f>
         <v>9.2199399999999994E-3</v>
       </c>
       <c r="C151" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.6647465000000004E-2</v>
       </c>
       <c r="D151" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.6593999999999997E-4</v>
       </c>
       <c r="E151" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.5007000000000002E-4</v>
       </c>
     </row>
@@ -31267,19 +31481,19 @@
         <v>99</v>
       </c>
       <c r="B152" s="20">
-        <f t="shared" ref="B152:E152" si="5">B158/20</f>
+        <f t="shared" ref="B152:E152" si="7">B158/20</f>
         <v>3.4024540000000006E-2</v>
       </c>
       <c r="C152" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.3267385000000012E-2</v>
       </c>
       <c r="D152" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.9270000000000001E-5</v>
       </c>
       <c r="E152" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.8149499999999999E-4</v>
       </c>
     </row>
@@ -31288,19 +31502,19 @@
         <v>94</v>
       </c>
       <c r="B153" s="20">
-        <f t="shared" ref="B153:E153" si="6">B159/20</f>
+        <f t="shared" ref="B153:E153" si="8">B159/20</f>
         <v>9.8936749999999993E-3</v>
       </c>
       <c r="C153" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.2773665000000005E-2</v>
       </c>
       <c r="D153" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.6341000000000006E-4</v>
       </c>
       <c r="E153" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.4682500000000005E-4</v>
       </c>
     </row>
@@ -31405,15 +31619,15 @@
         <v>7.143105000000001E-2</v>
       </c>
       <c r="C163" s="20">
-        <f t="shared" ref="C163:E163" si="7">C169/20</f>
+        <f t="shared" ref="C163:E163" si="9">C169/20</f>
         <v>0.26884694499999995</v>
       </c>
       <c r="D163" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.5545500000000005E-4</v>
       </c>
       <c r="E163" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.6412250000000005E-3</v>
       </c>
     </row>
@@ -31422,19 +31636,19 @@
         <v>87</v>
       </c>
       <c r="B164" s="20">
-        <f t="shared" ref="B164:E164" si="8">B170/20</f>
+        <f t="shared" ref="B164:E164" si="10">B170/20</f>
         <v>3.9124305000000005E-2</v>
       </c>
       <c r="C164" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.27012744499999997</v>
       </c>
       <c r="D164" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.4485999999999998E-4</v>
       </c>
       <c r="E164" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.6514800000000003E-3</v>
       </c>
     </row>
@@ -31443,19 +31657,19 @@
         <v>89</v>
       </c>
       <c r="B165" s="20">
-        <f t="shared" ref="B165:E165" si="9">B171/20</f>
+        <f t="shared" ref="B165:E165" si="11">B171/20</f>
         <v>3.859833E-2</v>
       </c>
       <c r="C165" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.15491654999999999</v>
       </c>
       <c r="D165" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6.0975500000000002E-4</v>
       </c>
       <c r="E165" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.5402950000000001E-3</v>
       </c>
     </row>
@@ -31464,19 +31678,19 @@
         <v>99</v>
       </c>
       <c r="B166" s="20">
-        <f t="shared" ref="B166:E166" si="10">B172/20</f>
+        <f t="shared" ref="B166:E166" si="12">B172/20</f>
         <v>0.40262533000000006</v>
       </c>
       <c r="C166" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.72543951000000007</v>
       </c>
       <c r="D166" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.1504699999999998E-3</v>
       </c>
       <c r="E166" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.1569515000000001E-2</v>
       </c>
     </row>
@@ -31485,19 +31699,19 @@
         <v>94</v>
       </c>
       <c r="B167" s="20">
-        <f t="shared" ref="B167:E167" si="11">B173/20</f>
+        <f t="shared" ref="B167:E167" si="13">B173/20</f>
         <v>3.9463380000000006E-2</v>
       </c>
       <c r="C167" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.12461310499999997</v>
       </c>
       <c r="D167" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6.9374499999999995E-4</v>
       </c>
       <c r="E167" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.6690849999999999E-3</v>
       </c>
     </row>
@@ -68874,13 +69088,13 @@
       <c r="M59" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="R59" s="23" t="s">
+      <c r="R59" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="S59" s="23" t="s">
+      <c r="S59" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="T59" s="23"/>
+      <c r="T59" s="24"/>
     </row>
     <row r="60" spans="12:20">
       <c r="M60" t="s">
@@ -68892,7 +69106,7 @@
       <c r="P60" t="s">
         <v>31</v>
       </c>
-      <c r="R60" s="24"/>
+      <c r="R60" s="25"/>
       <c r="S60" t="s">
         <v>25</v>
       </c>
